--- a/1000 cau.xlsx
+++ b/1000 cau.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="1036">
   <si>
     <t>Xin chào!</t>
   </si>
@@ -1216,10 +1216,10 @@
     <t>Việt Nam là một nước đang phát triển.</t>
   </si>
   <si>
-    <t>Việt Nam là thành viên của nhiều tổ chức quốc tế.</t>
-  </si>
-  <si>
-    <t>Kinh tế Việt Nam đang phát triển theo hướng công nghiệp hóa, hiện đại hóa.</t>
+    <t>Bà Hoa có một con chó rất đẹp.</t>
+  </si>
+  <si>
+    <t>Trong vườn có nhiều loại cây ăn quả.</t>
   </si>
   <si>
     <t>Nông nghiệp Việt Nam là một ngành quan trọng của nền kinh tế.</t>
@@ -1228,67 +1228,67 @@
     <t>Công nghiệp Việt Nam đang phát triển nhanh chóng.</t>
   </si>
   <si>
-    <t>Dịch vụ là ngành kinh tế quan trọng của Việt Nam.</t>
-  </si>
-  <si>
-    <t>Thương mại quốc tế của Việt Nam đang phát triển mạnh mẽ.</t>
-  </si>
-  <si>
-    <t>Du lịch là ngành kinh tế mũi nhọn của Việt Nam.</t>
-  </si>
-  <si>
-    <t>Việt Nam có nhiều tiềm năng phát triển du lịch.</t>
-  </si>
-  <si>
-    <t>Việt Nam là một đất nước có nhiều danh lam thắng cảnh.</t>
-  </si>
-  <si>
-    <t>Việt Nam có nhiều di sản văn hóa thế giới.</t>
-  </si>
-  <si>
-    <t>Việt Nam có nền văn hóa đa dạng và phong phú.</t>
-  </si>
-  <si>
-    <t>Việt Nam là một đất nước có nhiều lễ hội truyền thống.</t>
+    <t>Ba em là bác sĩ.</t>
+  </si>
+  <si>
+    <t>Vì sao lá cây có màu xanh?</t>
+  </si>
+  <si>
+    <t>An rất thích đi du lịch.</t>
+  </si>
+  <si>
+    <t>Trời trong và có nhiều nắng.</t>
+  </si>
+  <si>
+    <t>Việt Nam là một đất nước có nhiều cảnh đẹp.</t>
+  </si>
+  <si>
+    <t>Bạn có thích mèo không?</t>
+  </si>
+  <si>
+    <t>Hôm nay tôi đi bơi.</t>
+  </si>
+  <si>
+    <t>Việt Nam có nhiều lễ hội truyền thống.</t>
   </si>
   <si>
     <t>Việt Nam có nhiều món ăn ngon.</t>
   </si>
   <si>
-    <t>Việt Nam là một đất nước có nhiều người tài.</t>
-  </si>
-  <si>
-    <t>Việt Nam là một đất nước có nhiều người cần cù, chịu khó.</t>
-  </si>
-  <si>
-    <t>Việt Nam là một đất nước có nhiều người yêu nước.</t>
-  </si>
-  <si>
-    <t>Việt Nam là một đất nước có tương lai tươi sáng.</t>
+    <t>Cây xoài sau vườn do bố tôi trồng.</t>
+  </si>
+  <si>
+    <t>Đất nước tôi xinh đẹp.</t>
+  </si>
+  <si>
+    <t>Cùng chơi nào!</t>
+  </si>
+  <si>
+    <t>Tôi đi dạo bên hồ.</t>
   </si>
   <si>
     <t>Thế giới đang thay đổi nhanh chóng.</t>
   </si>
   <si>
-    <t>Khoa học và công nghệ đang phát triển mạnh mẽ.</t>
+    <t>Nghề nào cũng đáng quý.</t>
   </si>
   <si>
     <t>Môi trường đang bị ô nhiễm nghiêm trọng.</t>
   </si>
   <si>
-    <t>Biến đổi khí hậu đang là một vấn đề toàn cầu.</t>
-  </si>
-  <si>
-    <t>Toàn cầu hóa đang diễn ra mạnh mẽ.</t>
-  </si>
-  <si>
-    <t>Thế giới đang trở nên phẳng hơn.</t>
-  </si>
-  <si>
-    <t>Các quốc gia đang ngày càng hội nhập sâu rộng.</t>
-  </si>
-  <si>
-    <t>Thế giới đang trở nên hòa bình và hợp tác hơn.</t>
+    <t>Hôm nay học rất vui.</t>
+  </si>
+  <si>
+    <t>Cháo ngon quá.</t>
+  </si>
+  <si>
+    <t>Tôi thích nấu ăn.</t>
+  </si>
+  <si>
+    <t>Các trò chơi dân gian rất vui.</t>
+  </si>
+  <si>
+    <t>Ngày mai chắc sẽ có mưa.</t>
   </si>
   <si>
     <t>Thế giới đang trở nên tốt đẹp hơn.</t>
@@ -1297,22 +1297,22 @@
     <t>Con người cần có ý thức bảo vệ môi trường.</t>
   </si>
   <si>
-    <t>Con người cần có ý thức tiết kiệm năng lượng.</t>
-  </si>
-  <si>
-    <t>Con người cần có ý thức bảo vệ hòa bình.</t>
-  </si>
-  <si>
-    <t>Con người cần có ý thức giúp đỡ người khác.</t>
+    <t>Chú mèo thật đáng yêu.</t>
+  </si>
+  <si>
+    <t>Con cá đang bơi trong hồ nước.</t>
+  </si>
+  <si>
+    <t>Sao bạn không đá cầu?</t>
   </si>
   <si>
     <t>Con người cần có ý thức sống có trách nhiệm.</t>
   </si>
   <si>
-    <t>Con người cần có ý thức học hỏi và phát triển bản thân.</t>
-  </si>
-  <si>
-    <t>Tình yêu là một cảm xúc thiêng liêng và cao quý.</t>
+    <t>Chơi nhảy dây không?</t>
+  </si>
+  <si>
+    <t>Tình yêu là một cảm xúc thiêng liêng.</t>
   </si>
   <si>
     <t>Tình yêu là nguồn động lực mạnh mẽ giúp con người vượt qua mọi khó khăn.</t>
@@ -1321,7 +1321,7 @@
     <t>Tình yêu là sợi dây gắn kết mọi người lại với nhau.</t>
   </si>
   <si>
-    <t>Tình yêu là món quà quý giá nhất mà cuộc sống ban tặng cho con người.</t>
+    <t>Tình yêu gia đình vô cùng đáng quý.</t>
   </si>
   <si>
     <t>Gia đình là tổ ấm của mỗi người.</t>
@@ -1348,7 +1348,7 @@
     <t>Tình bạn giúp con người vượt qua mọi khó khăn trong cuộc sống.</t>
   </si>
   <si>
-    <t>Học tập là quá trình tiếp thu tri thức và rèn luyện kỹ năng.</t>
+    <t>Học tập là quá trình tiếp thu tri thức.</t>
   </si>
   <si>
     <t>Học tập giúp con người phát triển trí tuệ và nhân cách.</t>
@@ -1363,25 +1363,25 @@
     <t>Lao động giúp con người phát triển năng lực bản thân.</t>
   </si>
   <si>
-    <t>Lao động giúp con người đóng góp cho xã hội.</t>
+    <t>Lao động là vinh quang.</t>
   </si>
   <si>
     <t>Tự do là điều kiện cần thiết để con người phát triển toàn diện.</t>
   </si>
   <si>
-    <t>Tự do là trách nhiệm của mỗi người.</t>
-  </si>
-  <si>
-    <t>Bình đẳng là điều cần thiết để xây dựng một xã hội công bằng, dân chủ và văn minh.</t>
-  </si>
-  <si>
-    <t>Bình đẳng là trách nhiệm của mỗi người.</t>
+    <t>Tự do muôn năm.</t>
+  </si>
+  <si>
+    <t>Thể thao tốt cho sức khỏe</t>
+  </si>
+  <si>
+    <t>Chúc mừng sinh nhật.</t>
   </si>
   <si>
     <t>Hạnh phúc là trạng thái vui vẻ, hài lòng và thỏa mãn với cuộc sống.</t>
   </si>
   <si>
-    <t>Hạnh phúc là mục tiêu mà mỗi người hướng tới.</t>
+    <t>Chúc mừng năm mới.</t>
   </si>
   <si>
     <t>Hạnh phúc là kết quả của sự nỗ lực và phấn đấu của mỗi người.</t>
@@ -1393,7 +1393,7 @@
     <t>Sức khỏe là nền tảng của mọi thành công trong cuộc sống.</t>
   </si>
   <si>
-    <t>Trách nhiệm là nghĩa vụ và bổn phận mà mỗi người phải gánh vác.</t>
+    <t>Năm mới hạnh phúc.</t>
   </si>
   <si>
     <t>Trách nhiệm là phẩm chất quan trọng của con người.</t>
@@ -1408,82 +1408,82 @@
     <t>Lòng dũng cảm giúp con người vượt qua mọi khó khăn và thử thách.</t>
   </si>
   <si>
-    <t>Lòng dũng cảm giúp con người bảo vệ lẽ phải và công lý.</t>
-  </si>
-  <si>
-    <t>Lòng nhân ái là phẩm chất tốt đẹp của con người.</t>
+    <t>Chú voi con ở bản Đôn.</t>
+  </si>
+  <si>
+    <t>Giấy được làm từ gỗ.</t>
   </si>
   <si>
     <t>Lòng nhân ái giúp con người yêu thương và giúp đỡ người khác.</t>
   </si>
   <si>
-    <t>Lòng nhân ái giúp xây dựng một thế giới hòa bình và tốt đẹp hơn.</t>
-  </si>
-  <si>
-    <t>Lòng vị tha là phẩm chất cao quý của con người.</t>
-  </si>
-  <si>
-    <t>Lòng vị tha giúp con người quên đi bản thân để nghĩ cho người khác.</t>
+    <t>Sữa chua tốt cho sức khỏe</t>
+  </si>
+  <si>
+    <t>Chiếc cặp màu đen.</t>
+  </si>
+  <si>
+    <t>Mẹ tôi là giáo viên.</t>
   </si>
   <si>
     <t>Lòng vị tha giúp xây dựng một xã hội tốt đẹp hơn.</t>
   </si>
   <si>
-    <t>Lòng trung thực là phẩm chất quan trọng của con người.</t>
-  </si>
-  <si>
-    <t>Lòng trung thực giúp con người được mọi người tin tưởng và yêu mến.</t>
-  </si>
-  <si>
-    <t>Lòng trung thực giúp xây dựng một xã hội công bằng và văn minh.</t>
-  </si>
-  <si>
-    <t>Lòng kiên trì là phẩm chất quan trọng của con người.</t>
-  </si>
-  <si>
-    <t>Lòng kiên trì giúp con người đạt được mục tiêu của mình.</t>
+    <t>Công trình đang thi công.</t>
+  </si>
+  <si>
+    <t>Bánh mì là món ăn phổ biến.</t>
+  </si>
+  <si>
+    <t>Nhà tôi ở trong hẻm nhỏ.</t>
+  </si>
+  <si>
+    <t>Gọi cho cô xin phép nghỉ nhé.</t>
+  </si>
+  <si>
+    <t>Nước biển có màu xanh.</t>
   </si>
   <si>
     <t>Lòng kiên trì giúp con người vượt qua mọi khó khăn và thử thách.</t>
   </si>
   <si>
-    <t>Lòng lạc quan là phẩm chất tốt đẹp của con người.</t>
-  </si>
-  <si>
-    <t>Lòng lạc quan giúp con người vượt qua mọi khó khăn và thử thách.</t>
-  </si>
-  <si>
-    <t>Lòng lạc quan giúp xây dựng một cuộc sống vui vẻ và hạnh phúc.</t>
-  </si>
-  <si>
-    <t>Lòng biết ơn là phẩm chất tốt đẹp của con người.</t>
+    <t>Mẹ đang trồng cây sau vườn.</t>
+  </si>
+  <si>
+    <t>Con bò thích ăn cỏ.</t>
+  </si>
+  <si>
+    <t>Lạc quan giúp xây dựng một cuộc sống vui vẻ và hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Biết ơn người đã giúp đỡ bạn.</t>
   </si>
   <si>
     <t>Lòng biết ơn giúp con người sống có tình nghĩa và biết trân trọng những gì mình có.</t>
   </si>
   <si>
-    <t>Lòng biết ơn giúp xây dựng một xã hội tốt đẹp hơn.</t>
-  </si>
-  <si>
-    <t>Lòng yêu nước là tình cảm thiêng liêng của con người.</t>
-  </si>
-  <si>
-    <t>Lòng yêu nước giúp con người bảo vệ Tổ quốc và xây dựng đất nước ngày càng giàu đẹp.</t>
-  </si>
-  <si>
-    <t>Lòng yêu nước là nền tảng của mọi thành công trong cuộc sống.</t>
+    <t>Bạn thích đồ cay không?</t>
+  </si>
+  <si>
+    <t>Yêu nước là tình cảm thiêng liêng của con người.</t>
+  </si>
+  <si>
+    <t>Tôi sinh ra ở làng quê nhỏ.</t>
+  </si>
+  <si>
+    <t>Hè đến tôi và bạn bè thường đi thả diều.</t>
   </si>
   <si>
     <t>Thành công là kết quả của sự nỗ lực và phấn đấu của mỗi người.</t>
   </si>
   <si>
-    <t>Thành công là một quá trình.</t>
-  </si>
-  <si>
-    <t>Thành công không chỉ là của riêng ai mà là của cả tập thể.</t>
-  </si>
-  <si>
-    <t>Thất bại là một phần của cuộc sống.</t>
+    <t>Con ong rất chăm chỉ hút nhụy.</t>
+  </si>
+  <si>
+    <t>Mỗi ngày nên uống đủ 2L nước.</t>
+  </si>
+  <si>
+    <t>Trời mưa nên đường trơn.</t>
   </si>
   <si>
     <t>Thất bại là cơ hội để học hỏi và trưởng thành.</t>
@@ -1516,7 +1516,7 @@
     <t>Sức khỏe cần được quan tâm và chăm sóc.</t>
   </si>
   <si>
-    <t>Sức khỏe cần được bảo vệ và gìn giữ.</t>
+    <t>Bố tôi ngầu nhất quả đất.</t>
   </si>
   <si>
     <t>Tuổi trẻ là thời gian đẹp nhất của mỗi người.</t>
@@ -1525,52 +1525,52 @@
     <t>Tuổi trẻ cần được tận hưởng và khám phá.</t>
   </si>
   <si>
-    <t>Tuổi trẻ cần được sống có trách nhiệm và ý nghĩa.</t>
-  </si>
-  <si>
-    <t>Tuổi già là thời gian để nghỉ ngơi và an hưởng.</t>
-  </si>
-  <si>
-    <t>Tuổi già cần được quan tâm và chăm sóc.</t>
-  </si>
-  <si>
-    <t>Tuổi già cần được sống có ích và có giá trị.</t>
+    <t>Tôi thích nước ngọt có gas.</t>
+  </si>
+  <si>
+    <t>Mỗi ngày tôi thức dậy lúc 6h.</t>
+  </si>
+  <si>
+    <t>Em tôi năm nay 5 tuổi.</t>
+  </si>
+  <si>
+    <t>Chiếc vòng cổ kia thật đẹp.</t>
   </si>
   <si>
     <t>Thời gian là vàng bạc.</t>
   </si>
   <si>
-    <t>Thời gian là vô giá.</t>
-  </si>
-  <si>
-    <t>Thời gian không chờ đợi ai.</t>
+    <t>Đi dạo công viên nha.</t>
+  </si>
+  <si>
+    <t>Anh có gì muốn nói không?</t>
   </si>
   <si>
     <t>Phải biết quý trọng thời gian.</t>
   </si>
   <si>
-    <t>Phải biết sử dụng thời gian một cách hợp lý.</t>
+    <t>Cuối tuần tôi thích ở nhà.</t>
   </si>
   <si>
     <t>Phải biết tận dụng thời gian để làm những việc có ích.</t>
   </si>
   <si>
-    <t>Mục tiêu là kim chỉ nam cho hành động.</t>
+    <t>Mục tiêu trong năm mới là kiếm được thật nhiều tiền.</t>
   </si>
   <si>
     <t>Mục tiêu cần cụ thể, rõ ràng và có thể thực hiện được.</t>
   </si>
   <si>
-    <t>Mục tiêu cần được theo đuổi một cách kiên trì và quyết tâm.</t>
-  </si>
-  <si>
-    <t>Kế hoạch là tiền đề cho thành công.</t>
+    <t>Đã 3 ngày tôi không ngủ.</t>
+  </si>
+  <si>
+    <t>Mùi đất sau cơn mưa thật dễ chịu.</t>
   </si>
   <si>
     <t>Kế hoạch cần được thực hiện một cách nghiêm túc và có trách nhiệm.</t>
   </si>
   <si>
-    <t>Kế hoạch cần được điều chỉnh linh hoạt khi cần thiết.</t>
+    <t>Ông thường đạp xe đưa tôi đi học ngày thơ bé.</t>
   </si>
   <si>
     <t>Học hỏi là quá trình không ngừng nghỉ.</t>
@@ -1579,13 +1579,13 @@
     <t>Học hỏi giúp con người phát triển trí tuệ và nhân cách.</t>
   </si>
   <si>
-    <t>Học hỏi giúp con người thành công trong cuộc sống.</t>
-  </si>
-  <si>
-    <t>Đam mê là động lực của thành công.</t>
-  </si>
-  <si>
-    <t>Đam mê giúp con người vượt qua mọi khó khăn và thử thách.</t>
+    <t>Tôi có 1 chiếc xe đạp.</t>
+  </si>
+  <si>
+    <t>Sống hết mình vì đam mê.</t>
+  </si>
+  <si>
+    <t>Về tới nhắn tin cho tôi nhé.</t>
   </si>
   <si>
     <t>Đam mê giúp con người đạt được mục tiêu của mình.</t>
@@ -1597,7 +1597,7 @@
     <t>Thất bại giúp con người học hỏi và trưởng thành.</t>
   </si>
   <si>
-    <t>Thành công không phải là đích đến mà là một quá trình.</t>
+    <t>Vì sao cần phải thành công?</t>
   </si>
   <si>
     <t>Thành công cần có sự nỗ lực và phấn đấu của mỗi người.</t>
@@ -1615,49 +1615,49 @@
     <t>Cuộc sống phụ thuộc vào quyết định của chúng ta.</t>
   </si>
   <si>
-    <t>Cuộc sống là một món quà.</t>
-  </si>
-  <si>
-    <t>Cuộc sống là một cơ hội mới mẻ.</t>
-  </si>
-  <si>
-    <t>Cuộc sống là một thử thách.</t>
-  </si>
-  <si>
-    <t>Cuộc sống là một món quà quý giá.</t>
-  </si>
-  <si>
-    <t>Cuộc sống cần được trân trọng và gìn giữ.</t>
-  </si>
-  <si>
-    <t>Cuộc sống cần được sống có ý nghĩa.</t>
-  </si>
-  <si>
-    <t>Cuộc sống cần được sống có trách nhiệm.</t>
-  </si>
-  <si>
-    <t>Cuộc sống cần được sống có tình yêu thương.</t>
-  </si>
-  <si>
-    <t>Cuộc sống cần được sống có hoài bão và ước mơ.</t>
-  </si>
-  <si>
-    <t>Cuộc sống cần được sống có niềm tin và hy vọng.</t>
+    <t>Hoa sữa có mùi rất đặc trưng.</t>
+  </si>
+  <si>
+    <t>Tự học cần phải kiên trì.</t>
+  </si>
+  <si>
+    <t>Động vật rất đáng yêu.</t>
+  </si>
+  <si>
+    <t>Tôi đỗ đại học năm 18 tuổi.</t>
+  </si>
+  <si>
+    <t>Khi nào bạn kết hôn?</t>
+  </si>
+  <si>
+    <t>Trường bạn ở đâu?</t>
+  </si>
+  <si>
+    <t>Đã đến mùa gieo hạt.</t>
+  </si>
+  <si>
+    <t>Mai chúng ta vào rừng nhé.</t>
+  </si>
+  <si>
+    <t>Hoài bão và ước mơ rất quan trọng.</t>
+  </si>
+  <si>
+    <t>Ông bà rất dịu dàng.</t>
   </si>
   <si>
     <t>Cuộc sống cần được sống có trách nhiệm với bản thân, gia đình và xã hội.</t>
   </si>
   <si>
-    <t>Cuộc sống cần được sống có ý thức bảo vệ môi trường.</t>
-  </si>
-  <si>
-    <t>Cuộc sống cần được sống có ý thức xây dựng một thế giới hòa bình và tốt đẹp hơn.</t>
-  </si>
-  <si>
-    <t>Cuộc sống cần được sống có ý thức phát triển bền vững.</t>
-  </si>
-  <si>
-    <t>Hãy sống trọn vẹn từng khoảnh khắc trong cuộc sống.</t>
+    <t>Ở độ tuổi nào cũng cần được chở che.</t>
+  </si>
+  <si>
+    <t>Mai đi học chung nha?</t>
+  </si>
+  <si>
+    <t>Ngày mai em lấy chồng.</t>
+  </si>
+  <si>
+    <t>Lười quá.</t>
   </si>
   <si>
     <t>Hãy sống có ước mơ và hoài bão.</t>
@@ -1705,7 +1705,7 @@
     <t>Lòng kiên trì là yếu tố quan trọng để thành công.</t>
   </si>
   <si>
-    <t>Lòng lạc quan là sức mạnh giúp con người vượt qua khó khăn.</t>
+    <t>Lạc quan là sức mạnh giúp con người vượt qua khó khăn.</t>
   </si>
   <si>
     <t>Thời gian không thể quay lại.</t>
@@ -1723,49 +1723,49 @@
     <t>Hãy sống có ước mơ.</t>
   </si>
   <si>
-    <t>Hãy sống có trách nhiệm với mọi người.</t>
-  </si>
-  <si>
-    <t>Hãy sống có tình yêu thương và được yêu thương.</t>
-  </si>
-  <si>
-    <t>Hãy sống có niềm tin và hy vọng.</t>
+    <t>Minh biết chạy xe ô tô.</t>
+  </si>
+  <si>
+    <t>Sau cơn mưa cỏ sẽ mọc rất nhanh.</t>
+  </si>
+  <si>
+    <t>Hi vọng mỗi ngày đều vui vẻ.</t>
   </si>
   <si>
     <t>Hãy sống thật lạc quan và yêu đời.</t>
   </si>
   <si>
-    <t>Hãy sống và làm  có trí tuệ và sáng tạo.</t>
-  </si>
-  <si>
-    <t>Hãy sống có trách nhiệm và lương tâm.</t>
-  </si>
-  <si>
-    <t>Hãy sống có kỷ luật và tự giác.</t>
-  </si>
-  <si>
-    <t>Hãy sống có tôn trọng và yêu thương.</t>
-  </si>
-  <si>
-    <t>Hãy sống có hòa hợp và đoàn kết.</t>
-  </si>
-  <si>
-    <t>Hãy sống có trách nhiệm với môi trường.</t>
-  </si>
-  <si>
-    <t>Hãy sống có trách nhiệm với xã hội.</t>
-  </si>
-  <si>
-    <t>Hãy sống có trách nhiệm với thế giới.</t>
-  </si>
-  <si>
-    <t>Hãy sống có ý thức bảo vệ hòa bình.</t>
-  </si>
-  <si>
-    <t>Hãy sống có ý thức xây dựng một thế giới tốt đẹp hơn.</t>
-  </si>
-  <si>
-    <t>Hãy sống có ý thức phát triển bền vững.</t>
+    <t>Ốm rồi.</t>
+  </si>
+  <si>
+    <t>Đi chợ với mẹ nhé.</t>
+  </si>
+  <si>
+    <t>Trông em cho mẹ làm việc nhà.</t>
+  </si>
+  <si>
+    <t>Nấu cơm cho gia đình rất vui.</t>
+  </si>
+  <si>
+    <t>Thời tiết đẹp quá.</t>
+  </si>
+  <si>
+    <t>Phải biết giữ gìn môi trường xanh sạch đẹp.</t>
+  </si>
+  <si>
+    <t>Mỗi ngày tôi chọn một niềm vui.</t>
+  </si>
+  <si>
+    <t>Ngày bé tôi rất tròn trĩnh.</t>
+  </si>
+  <si>
+    <t>Kiến rất thích đồ ngọt.</t>
+  </si>
+  <si>
+    <t>Quả táo màu đỏ.</t>
+  </si>
+  <si>
+    <t>Nho này ngọt quá.</t>
   </si>
   <si>
     <t>Cùng đi chơi nào.</t>
@@ -2116,7 +2116,7 @@
     <t>Con đường mới đã được mở rộng để giảm tắc nghẽn giao thông.</t>
   </si>
   <si>
-    <t>Tôi thích hòa nhạc cổ điển hơn nhạc pop.</t>
+    <t>Tôi thích đạp xe buổi sáng.</t>
   </si>
   <si>
     <t>Hôm nay trời se lạnh.</t>
@@ -3121,10 +3121,7 @@
     <t>Bạn thích hát không?</t>
   </si>
   <si>
-    <t>Hãy tận hưởng mỗi khoảnh khắc.</t>
-  </si>
-  <si>
-    <t>Bạn đã đọc sách mới này chưa?</t>
+    <t>Cố gắng để thành công.</t>
   </si>
 </sst>
 </file>
@@ -3137,7 +3134,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3154,13 +3151,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3613,28 +3603,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3643,118 +3636,115 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4088,5222 +4078,5216 @@
   <sheetPr/>
   <dimension ref="A1:A1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A1012" workbookViewId="0">
+      <selection activeCell="A1036" sqref="A1036"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="77" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.44444444444444" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.7962962962963" style="2"/>
-    <col min="5" max="5" width="24.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.44444444444444" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.7962962962963" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:1">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:1">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:1">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:1">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:1">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:1">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:1">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:1">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="1:1">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:1">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="1:1">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:1">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:1">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="1:1">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:1">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="1:1">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="14.4" spans="1:1">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="1:1">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="14.4" spans="1:1">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="14.4" spans="1:1">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="14.4" spans="1:1">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.4" spans="1:1">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="1:1">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="14.4" spans="1:1">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="14.4" spans="1:1">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="14.4" spans="1:1">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="14.4" spans="1:1">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="14.4" spans="1:1">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="1:1">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="1:1">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="14.4" spans="1:1">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="14.4" spans="1:1">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="14.4" spans="1:1">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="14.4" spans="1:1">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="14.4" spans="1:1">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="14.4" spans="1:1">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="14.4" spans="1:1">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="14.4" spans="1:1">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="14.4" spans="1:1">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="14.4" spans="1:1">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="14.4" spans="1:1">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="14.4" spans="1:1">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="14.4" spans="1:1">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="14.4" spans="1:1">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="14.4" spans="1:1">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="14.4" spans="1:1">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="14.4" spans="1:1">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" ht="14.4" spans="1:1">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="14.4" spans="1:1">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" ht="14.4" spans="1:1">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="14.4" spans="1:1">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="14.4" spans="1:1">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" ht="14.4" spans="1:1">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="14.4" spans="1:1">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" ht="14.4" spans="1:1">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" ht="14.4" spans="1:1">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="14.4" spans="1:1">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" ht="14.4" spans="1:1">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" ht="14.4" spans="1:1">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="14.4" spans="1:1">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" ht="14.4" spans="1:1">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" ht="14.4" spans="1:1">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" ht="14.4" spans="1:1">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" ht="14.4" spans="1:1">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" ht="14.4" spans="1:1">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="14.4" spans="1:1">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" ht="14.4" spans="1:1">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" ht="14.4" spans="1:1">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" ht="14.4" spans="1:1">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" ht="14.4" spans="1:1">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" ht="14.4" spans="1:1">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" ht="14.4" spans="1:1">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="14.4" spans="1:1">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" ht="14.4" spans="1:1">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" ht="14.4" spans="1:1">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" ht="14.4" spans="1:1">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" ht="14.4" spans="1:1">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" ht="14.4" spans="1:1">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" ht="14.4" spans="1:1">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" ht="14.4" spans="1:1">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" ht="14.4" spans="1:1">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" ht="14.4" spans="1:1">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" ht="14.4" spans="1:1">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" ht="14.4" spans="1:1">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" ht="14.4" spans="1:1">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" ht="14.4" spans="1:1">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" ht="14.4" spans="1:1">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" ht="14.4" spans="1:1">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" ht="14.4" spans="1:1">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" ht="14.4" spans="1:1">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" ht="14.4" spans="1:1">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" ht="14.4" spans="1:1">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" ht="14.4" spans="1:1">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" ht="14.4" spans="1:1">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" ht="14.4" spans="1:1">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" ht="14.4" spans="1:1">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" ht="14.4" spans="1:1">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" ht="14.4" spans="1:1">
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" ht="14.4" spans="1:1">
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" ht="14.4" spans="1:1">
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" ht="14.4" spans="1:1">
+    <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" ht="14.4" spans="1:1">
+    <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="14.4" spans="1:1">
+    <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" ht="14.4" spans="1:1">
+    <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" ht="14.4" spans="1:1">
+    <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" ht="14.4" spans="1:1">
+    <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" ht="14.4" spans="1:1">
+    <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" ht="14.4" spans="1:1">
+    <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" ht="14.4" spans="1:1">
+    <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" ht="14.4" spans="1:1">
+    <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" ht="14.4" spans="1:1">
+    <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" ht="14.4" spans="1:1">
+    <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" ht="14.4" spans="1:1">
+    <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" ht="14.4" spans="1:1">
+    <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" ht="14.4" spans="1:1">
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" ht="14.4" spans="1:1">
+    <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" ht="14.4" spans="1:1">
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" ht="14.4" spans="1:1">
+    <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" ht="14.4" spans="1:1">
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" ht="14.4" spans="1:1">
+    <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" ht="14.4" spans="1:1">
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" ht="14.4" spans="1:1">
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" ht="14.4" spans="1:1">
+    <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" ht="14.4" spans="1:1">
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" ht="14.4" spans="1:1">
+    <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" ht="14.4" spans="1:1">
+    <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" ht="14.4" spans="1:1">
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" ht="14.4" spans="1:1">
+    <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" ht="14.4" spans="1:1">
+    <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" ht="14.4" spans="1:1">
+    <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" ht="14.4" spans="1:1">
+    <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" ht="14.4" spans="1:1">
+    <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" ht="14.4" spans="1:1">
+    <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" ht="14.4" spans="1:1">
+    <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" ht="14.4" spans="1:1">
+    <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" ht="14.4" spans="1:1">
+    <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" ht="14.4" spans="1:1">
+    <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" ht="14.4" spans="1:1">
+    <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" ht="14.4" spans="1:1">
+    <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" ht="14.4" spans="1:1">
+    <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" ht="14.4" spans="1:1">
+    <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" ht="14.4" spans="1:1">
+    <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" ht="14.4" spans="1:1">
+    <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" ht="14.4" spans="1:1">
+    <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" ht="14.4" spans="1:1">
+    <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" ht="14.4" spans="1:1">
+    <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" ht="14.4" spans="1:1">
+    <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" ht="14.4" spans="1:1">
+    <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" ht="14.4" spans="1:1">
+    <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" ht="14.4" spans="1:1">
+    <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" ht="14.4" spans="1:1">
+    <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" ht="14.4" spans="1:1">
+    <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" ht="14.4" spans="1:1">
+    <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" ht="14.4" spans="1:1">
+    <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" ht="14.4" spans="1:1">
+    <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" ht="14.4" spans="1:1">
+    <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" ht="14.4" spans="1:1">
+    <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" ht="14.4" spans="1:1">
+    <row r="158" spans="1:1">
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" ht="14.4" spans="1:1">
+    <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" ht="14.4" spans="1:1">
+    <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" ht="14.4" spans="1:1">
+    <row r="161" spans="1:1">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" ht="14.4" spans="1:1">
+    <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" ht="14.4" spans="1:1">
+    <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" ht="14.4" spans="1:1">
+    <row r="164" spans="1:1">
       <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" ht="14.4" spans="1:1">
+    <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" ht="14.4" spans="1:1">
+    <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" ht="14.4" spans="1:1">
+    <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" ht="14.4" spans="1:1">
+    <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" ht="14.4" spans="1:1">
+    <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" ht="14.4" spans="1:1">
+    <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" ht="14.4" spans="1:1">
+    <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" ht="14.4" spans="1:1">
+    <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" ht="14.4" spans="1:1">
+    <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" ht="14.4" spans="1:1">
+    <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" ht="14.4" spans="1:1">
+    <row r="175" spans="1:1">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" ht="14.4" spans="1:1">
+    <row r="176" spans="1:1">
       <c r="A176" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" ht="14.4" spans="1:1">
+    <row r="177" spans="1:1">
       <c r="A177" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" ht="14.4" spans="1:1">
+    <row r="178" spans="1:1">
       <c r="A178" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" ht="14.4" spans="1:1">
+    <row r="179" spans="1:1">
       <c r="A179" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" ht="14.4" spans="1:1">
+    <row r="180" spans="1:1">
       <c r="A180" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" ht="14.4" spans="1:1">
+    <row r="181" spans="1:1">
       <c r="A181" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" ht="14.4" spans="1:1">
+    <row r="182" spans="1:1">
       <c r="A182" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" ht="14.4" spans="1:1">
+    <row r="183" spans="1:1">
       <c r="A183" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" ht="14.4" spans="1:1">
+    <row r="184" spans="1:1">
       <c r="A184" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" ht="14.4" spans="1:1">
+    <row r="185" spans="1:1">
       <c r="A185" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" ht="14.4" spans="1:1">
+    <row r="186" spans="1:1">
       <c r="A186" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" ht="14.4" spans="1:1">
+    <row r="187" spans="1:1">
       <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" ht="14.4" spans="1:1">
+    <row r="188" spans="1:1">
       <c r="A188" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" ht="14.4" spans="1:1">
+    <row r="189" spans="1:1">
       <c r="A189" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" ht="14.4" spans="1:1">
+    <row r="190" spans="1:1">
       <c r="A190" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" ht="14.4" spans="1:1">
+    <row r="191" spans="1:1">
       <c r="A191" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" ht="14.4" spans="1:1">
+    <row r="192" spans="1:1">
       <c r="A192" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" ht="14.4" spans="1:1">
+    <row r="193" spans="1:1">
       <c r="A193" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" ht="14.4" spans="1:1">
+    <row r="194" spans="1:1">
       <c r="A194" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" ht="14.4" spans="1:1">
+    <row r="195" spans="1:1">
       <c r="A195" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" ht="14.4" spans="1:1">
+    <row r="196" spans="1:1">
       <c r="A196" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" ht="14.4" spans="1:1">
+    <row r="197" spans="1:1">
       <c r="A197" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" ht="14.4" spans="1:1">
+    <row r="198" spans="1:1">
       <c r="A198" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" ht="14.4" spans="1:1">
+    <row r="199" spans="1:1">
       <c r="A199" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" ht="14.4" spans="1:1">
+    <row r="200" spans="1:1">
       <c r="A200" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" ht="14.4" spans="1:1">
+    <row r="201" spans="1:1">
       <c r="A201" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" ht="14.4" spans="1:1">
+    <row r="202" spans="1:1">
       <c r="A202" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" ht="14.4" spans="1:1">
+    <row r="203" spans="1:1">
       <c r="A203" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" ht="14.4" spans="1:1">
+    <row r="204" spans="1:1">
       <c r="A204" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" ht="14.4" spans="1:1">
+    <row r="205" spans="1:1">
       <c r="A205" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" ht="14.4" spans="1:1">
+    <row r="206" spans="1:1">
       <c r="A206" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" ht="14.4" spans="1:1">
+    <row r="207" spans="1:1">
       <c r="A207" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" ht="14.4" spans="1:1">
+    <row r="208" spans="1:1">
       <c r="A208" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" ht="14.4" spans="1:1">
+    <row r="209" spans="1:1">
       <c r="A209" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" ht="14.4" spans="1:1">
+    <row r="210" spans="1:1">
       <c r="A210" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" ht="14.4" spans="1:1">
+    <row r="211" spans="1:1">
       <c r="A211" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" ht="14.4" spans="1:1">
+    <row r="212" spans="1:1">
       <c r="A212" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" ht="14.4" spans="1:1">
+    <row r="213" spans="1:1">
       <c r="A213" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" ht="14.4" spans="1:1">
+    <row r="214" spans="1:1">
       <c r="A214" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" ht="14.4" spans="1:1">
+    <row r="215" spans="1:1">
       <c r="A215" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" ht="14.4" spans="1:1">
+    <row r="216" spans="1:1">
       <c r="A216" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" ht="14.4" spans="1:1">
+    <row r="217" spans="1:1">
       <c r="A217" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" ht="14.4" spans="1:1">
+    <row r="218" spans="1:1">
       <c r="A218" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" ht="14.4" spans="1:1">
+    <row r="219" spans="1:1">
       <c r="A219" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" ht="14.4" spans="1:1">
+    <row r="220" spans="1:1">
       <c r="A220" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" ht="14.4" spans="1:1">
+    <row r="221" spans="1:1">
       <c r="A221" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" ht="14.4" spans="1:1">
+    <row r="222" spans="1:1">
       <c r="A222" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" ht="14.4" spans="1:1">
+    <row r="223" spans="1:1">
       <c r="A223" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" ht="14.4" spans="1:1">
+    <row r="224" spans="1:1">
       <c r="A224" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" ht="14.4" spans="1:1">
+    <row r="225" spans="1:1">
       <c r="A225" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" ht="14.4" spans="1:1">
+    <row r="226" spans="1:1">
       <c r="A226" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" ht="14.4" spans="1:1">
+    <row r="227" spans="1:1">
       <c r="A227" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" ht="14.4" spans="1:1">
+    <row r="228" spans="1:1">
       <c r="A228" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" ht="14.4" spans="1:1">
+    <row r="229" spans="1:1">
       <c r="A229" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" ht="14.4" spans="1:1">
+    <row r="230" spans="1:1">
       <c r="A230" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" ht="14.4" spans="1:1">
+    <row r="231" spans="1:1">
       <c r="A231" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" ht="14.4" spans="1:1">
+    <row r="232" spans="1:1">
       <c r="A232" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" ht="14.4" spans="1:1">
+    <row r="233" spans="1:1">
       <c r="A233" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" ht="14.4" spans="1:1">
+    <row r="234" spans="1:1">
       <c r="A234" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" ht="14.4" spans="1:1">
+    <row r="235" spans="1:1">
       <c r="A235" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" ht="14.4" spans="1:1">
+    <row r="236" spans="1:1">
       <c r="A236" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" ht="14.4" spans="1:1">
+    <row r="237" spans="1:1">
       <c r="A237" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" ht="14.4" spans="1:1">
+    <row r="238" spans="1:1">
       <c r="A238" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" ht="14.4" spans="1:1">
+    <row r="239" spans="1:1">
       <c r="A239" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" ht="14.4" spans="1:1">
+    <row r="240" spans="1:1">
       <c r="A240" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" ht="14.4" spans="1:1">
+    <row r="241" spans="1:1">
       <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" ht="14.4" spans="1:1">
+    <row r="242" spans="1:1">
       <c r="A242" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" ht="14.4" spans="1:1">
+    <row r="243" spans="1:1">
       <c r="A243" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" ht="14.4" spans="1:1">
+    <row r="244" spans="1:1">
       <c r="A244" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" ht="14.4" spans="1:1">
+    <row r="245" spans="1:1">
       <c r="A245" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" ht="14.4" spans="1:1">
+    <row r="246" spans="1:1">
       <c r="A246" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" ht="14.4" spans="1:1">
+    <row r="247" spans="1:1">
       <c r="A247" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" ht="14.4" spans="1:1">
+    <row r="248" spans="1:1">
       <c r="A248" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" ht="14.4" spans="1:1">
+    <row r="249" spans="1:1">
       <c r="A249" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" ht="14.4" spans="1:1">
+    <row r="250" spans="1:1">
       <c r="A250" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" ht="14.4" spans="1:1">
+    <row r="251" spans="1:1">
       <c r="A251" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" ht="14.4" spans="1:1">
+    <row r="252" spans="1:1">
       <c r="A252" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" ht="14.4" spans="1:1">
+    <row r="253" spans="1:1">
       <c r="A253" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" ht="14.4" spans="1:1">
+    <row r="254" spans="1:1">
       <c r="A254" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" ht="14.4" spans="1:1">
+    <row r="255" spans="1:1">
       <c r="A255" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" ht="14.4" spans="1:1">
+    <row r="256" spans="1:1">
       <c r="A256" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" ht="14.4" spans="1:1">
+    <row r="257" spans="1:1">
       <c r="A257" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" ht="14.4" spans="1:1">
+    <row r="258" spans="1:1">
       <c r="A258" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" ht="14.4" spans="1:1">
+    <row r="259" spans="1:1">
       <c r="A259" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" ht="14.4" spans="1:1">
+    <row r="260" spans="1:1">
       <c r="A260" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" ht="14.4" spans="1:1">
+    <row r="261" spans="1:1">
       <c r="A261" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" ht="14.4" spans="1:1">
+    <row r="262" spans="1:1">
       <c r="A262" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" ht="14.4" spans="1:1">
+    <row r="263" spans="1:1">
       <c r="A263" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" ht="14.4" spans="1:1">
+    <row r="264" spans="1:1">
       <c r="A264" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" ht="14.4" spans="1:1">
+    <row r="265" spans="1:1">
       <c r="A265" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" ht="14.4" spans="1:1">
+    <row r="266" spans="1:1">
       <c r="A266" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" ht="14.4" spans="1:1">
+    <row r="267" spans="1:1">
       <c r="A267" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" ht="14.4" spans="1:1">
+    <row r="268" spans="1:1">
       <c r="A268" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" ht="14.4" spans="1:1">
+    <row r="269" spans="1:1">
       <c r="A269" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" ht="14.4" spans="1:1">
+    <row r="270" spans="1:1">
       <c r="A270" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" ht="14.4" spans="1:1">
+    <row r="271" spans="1:1">
       <c r="A271" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" ht="14.4" spans="1:1">
+    <row r="272" spans="1:1">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" ht="14.4" spans="1:1">
+    <row r="273" spans="1:1">
       <c r="A273" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" ht="14.4" spans="1:1">
+    <row r="274" spans="1:1">
       <c r="A274" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" ht="14.4" spans="1:1">
+    <row r="275" spans="1:1">
       <c r="A275" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" ht="14.4" spans="1:1">
+    <row r="276" spans="1:1">
       <c r="A276" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" ht="14.4" spans="1:1">
+    <row r="277" spans="1:1">
       <c r="A277" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" ht="14.4" spans="1:1">
+    <row r="278" spans="1:1">
       <c r="A278" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" ht="14.4" spans="1:1">
+    <row r="279" spans="1:1">
       <c r="A279" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" ht="14.4" spans="1:1">
+    <row r="280" spans="1:1">
       <c r="A280" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" ht="14.4" spans="1:1">
+    <row r="281" spans="1:1">
       <c r="A281" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" ht="14.4" spans="1:1">
+    <row r="282" spans="1:1">
       <c r="A282" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" ht="14.4" spans="1:1">
+    <row r="283" spans="1:1">
       <c r="A283" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" ht="14.4" spans="1:1">
+    <row r="284" spans="1:1">
       <c r="A284" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" ht="14.4" spans="1:1">
+    <row r="285" spans="1:1">
       <c r="A285" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" ht="14.4" spans="1:1">
+    <row r="286" spans="1:1">
       <c r="A286" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" ht="14.4" spans="1:1">
+    <row r="287" spans="1:1">
       <c r="A287" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" ht="14.4" spans="1:1">
+    <row r="288" spans="1:1">
       <c r="A288" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" ht="14.4" spans="1:1">
+    <row r="289" spans="1:1">
       <c r="A289" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" ht="14.4" spans="1:1">
+    <row r="290" spans="1:1">
       <c r="A290" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" ht="14.4" spans="1:1">
+    <row r="291" spans="1:1">
       <c r="A291" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" ht="14.4" spans="1:1">
+    <row r="292" spans="1:1">
       <c r="A292" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" ht="14.4" spans="1:1">
+    <row r="293" spans="1:1">
       <c r="A293" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" ht="14.4" spans="1:1">
+    <row r="294" spans="1:1">
       <c r="A294" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" ht="14.4" spans="1:1">
+    <row r="295" spans="1:1">
       <c r="A295" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" ht="14.4" spans="1:1">
+    <row r="296" spans="1:1">
       <c r="A296" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" ht="14.4" spans="1:1">
+    <row r="297" spans="1:1">
       <c r="A297" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" ht="14.4" spans="1:1">
+    <row r="298" spans="1:1">
       <c r="A298" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" ht="14.4" spans="1:1">
+    <row r="299" spans="1:1">
       <c r="A299" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" ht="14.4" spans="1:1">
+    <row r="300" spans="1:1">
       <c r="A300" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" ht="14.4" spans="1:1">
+    <row r="301" spans="1:1">
       <c r="A301" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" ht="14.4" spans="1:1">
+    <row r="302" spans="1:1">
       <c r="A302" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" ht="14.4" spans="1:1">
+    <row r="303" spans="1:1">
       <c r="A303" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" ht="14.4" spans="1:1">
+    <row r="304" spans="1:1">
       <c r="A304" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" ht="14.4" spans="1:1">
+    <row r="305" spans="1:1">
       <c r="A305" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" ht="14.4" spans="1:1">
+    <row r="306" spans="1:1">
       <c r="A306" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" ht="14.4" spans="1:1">
+    <row r="307" spans="1:1">
       <c r="A307" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" ht="14.4" spans="1:1">
+    <row r="308" spans="1:1">
       <c r="A308" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" ht="14.4" spans="1:1">
+    <row r="309" spans="1:1">
       <c r="A309" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" ht="14.4" spans="1:1">
+    <row r="310" spans="1:1">
       <c r="A310" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" ht="14.4" spans="1:1">
+    <row r="311" spans="1:1">
       <c r="A311" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" ht="14.4" spans="1:1">
+    <row r="312" spans="1:1">
       <c r="A312" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" ht="14.4" spans="1:1">
+    <row r="313" spans="1:1">
       <c r="A313" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" ht="14.4" spans="1:1">
+    <row r="314" spans="1:1">
       <c r="A314" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" ht="14.4" spans="1:1">
+    <row r="315" spans="1:1">
       <c r="A315" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" ht="14.4" spans="1:1">
+    <row r="316" spans="1:1">
       <c r="A316" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" ht="14.4" spans="1:1">
+    <row r="317" spans="1:1">
       <c r="A317" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" ht="14.4" spans="1:1">
+    <row r="318" spans="1:1">
       <c r="A318" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" ht="14.4" spans="1:1">
+    <row r="319" spans="1:1">
       <c r="A319" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" ht="14.4" spans="1:1">
+    <row r="320" spans="1:1">
       <c r="A320" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" ht="14.4" spans="1:1">
+    <row r="321" spans="1:1">
       <c r="A321" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" ht="14.4" spans="1:1">
+    <row r="322" spans="1:1">
       <c r="A322" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" ht="14.4" spans="1:1">
+    <row r="323" spans="1:1">
       <c r="A323" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" ht="14.4" spans="1:1">
+    <row r="324" spans="1:1">
       <c r="A324" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" ht="14.4" spans="1:1">
+    <row r="325" spans="1:1">
       <c r="A325" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" ht="14.4" spans="1:1">
+    <row r="326" spans="1:1">
       <c r="A326" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" ht="14.4" spans="1:1">
+    <row r="327" spans="1:1">
       <c r="A327" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" ht="14.4" spans="1:1">
+    <row r="328" spans="1:1">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" ht="14.4" spans="1:1">
+    <row r="329" spans="1:1">
       <c r="A329" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" ht="14.4" spans="1:1">
+    <row r="330" spans="1:1">
       <c r="A330" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" ht="14.4" spans="1:1">
+    <row r="331" spans="1:1">
       <c r="A331" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" ht="14.4" spans="1:1">
+    <row r="332" spans="1:1">
       <c r="A332" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" ht="14.4" spans="1:1">
+    <row r="333" spans="1:1">
       <c r="A333" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" ht="14.4" spans="1:1">
+    <row r="334" spans="1:1">
       <c r="A334" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" ht="14.4" spans="1:1">
+    <row r="335" spans="1:1">
       <c r="A335" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" ht="14.4" spans="1:1">
+    <row r="336" spans="1:1">
       <c r="A336" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" ht="14.4" spans="1:1">
+    <row r="337" spans="1:1">
       <c r="A337" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" ht="14.4" spans="1:1">
+    <row r="338" spans="1:1">
       <c r="A338" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" ht="14.4" spans="1:1">
+    <row r="339" spans="1:1">
       <c r="A339" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" ht="14.4" spans="1:1">
+    <row r="340" spans="1:1">
       <c r="A340" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" ht="14.4" spans="1:1">
+    <row r="341" spans="1:1">
       <c r="A341" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" ht="14.4" spans="1:1">
+    <row r="342" spans="1:1">
       <c r="A342" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" ht="14.4" spans="1:1">
+    <row r="343" spans="1:1">
       <c r="A343" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" ht="14.4" spans="1:1">
+    <row r="344" spans="1:1">
       <c r="A344" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" ht="14.4" spans="1:1">
+    <row r="345" spans="1:1">
       <c r="A345" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" ht="14.4" spans="1:1">
+    <row r="346" spans="1:1">
       <c r="A346" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" ht="14.4" spans="1:1">
+    <row r="347" spans="1:1">
       <c r="A347" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" ht="14.4" spans="1:1">
+    <row r="348" spans="1:1">
       <c r="A348" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" ht="14.4" spans="1:1">
+    <row r="349" spans="1:1">
       <c r="A349" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" ht="14.4" spans="1:1">
+    <row r="350" spans="1:1">
       <c r="A350" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" ht="14.4" spans="1:1">
+    <row r="351" spans="1:1">
       <c r="A351" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" ht="14.4" spans="1:1">
+    <row r="352" spans="1:1">
       <c r="A352" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" ht="14.4" spans="1:1">
+    <row r="353" spans="1:1">
       <c r="A353" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" ht="14.4" spans="1:1">
+    <row r="354" spans="1:1">
       <c r="A354" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" ht="14.4" spans="1:1">
+    <row r="355" spans="1:1">
       <c r="A355" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" ht="14.4" spans="1:1">
+    <row r="356" spans="1:1">
       <c r="A356" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" ht="14.4" spans="1:1">
+    <row r="357" spans="1:1">
       <c r="A357" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" ht="14.4" spans="1:1">
+    <row r="358" spans="1:1">
       <c r="A358" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" ht="14.4" spans="1:1">
+    <row r="359" spans="1:1">
       <c r="A359" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" ht="14.4" spans="1:1">
+    <row r="360" spans="1:1">
       <c r="A360" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" ht="14.4" spans="1:1">
+    <row r="361" spans="1:1">
       <c r="A361" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" ht="14.4" spans="1:1">
+    <row r="362" spans="1:1">
       <c r="A362" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" ht="14.4" spans="1:1">
+    <row r="363" spans="1:1">
       <c r="A363" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" ht="14.4" spans="1:1">
+    <row r="364" spans="1:1">
       <c r="A364" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" ht="14.4" spans="1:1">
+    <row r="365" spans="1:1">
       <c r="A365" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" ht="14.4" spans="1:1">
+    <row r="366" spans="1:1">
       <c r="A366" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" ht="14.4" spans="1:1">
+    <row r="367" spans="1:1">
       <c r="A367" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" ht="14.4" spans="1:1">
+    <row r="368" spans="1:1">
       <c r="A368" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" ht="14.4" spans="1:1">
+    <row r="369" spans="1:1">
       <c r="A369" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" ht="14.4" spans="1:1">
+    <row r="370" spans="1:1">
       <c r="A370" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" ht="14.4" spans="1:1">
+    <row r="371" spans="1:1">
       <c r="A371" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" ht="14.4" spans="1:1">
+    <row r="372" spans="1:1">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" ht="14.4" spans="1:1">
+    <row r="373" spans="1:1">
       <c r="A373" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" ht="14.4" spans="1:1">
+    <row r="374" spans="1:1">
       <c r="A374" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" ht="14.4" spans="1:1">
+    <row r="375" spans="1:1">
       <c r="A375" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" ht="14.4" spans="1:1">
+    <row r="376" spans="1:1">
       <c r="A376" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" ht="14.4" spans="1:1">
+    <row r="377" spans="1:1">
       <c r="A377" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" ht="14.4" spans="1:1">
+    <row r="378" spans="1:1">
       <c r="A378" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" ht="14.4" spans="1:1">
+    <row r="379" spans="1:1">
       <c r="A379" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" ht="14.4" spans="1:1">
+    <row r="380" spans="1:1">
       <c r="A380" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" ht="14.4" spans="1:1">
+    <row r="381" spans="1:1">
       <c r="A381" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" ht="14.4" spans="1:1">
+    <row r="382" spans="1:1">
       <c r="A382" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" ht="14.4" spans="1:1">
+    <row r="383" spans="1:1">
       <c r="A383" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" ht="14.4" spans="1:1">
+    <row r="384" spans="1:1">
       <c r="A384" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" ht="14.4" spans="1:1">
+    <row r="385" spans="1:1">
       <c r="A385" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" ht="14.4" spans="1:1">
+    <row r="386" spans="1:1">
       <c r="A386" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" ht="14.4" spans="1:1">
+    <row r="387" spans="1:1">
       <c r="A387" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" ht="14.4" spans="1:1">
+    <row r="388" spans="1:1">
       <c r="A388" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" ht="14.4" spans="1:1">
+    <row r="389" spans="1:1">
       <c r="A389" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" ht="14.4" spans="1:1">
+    <row r="390" spans="1:1">
       <c r="A390" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" ht="14.4" spans="1:1">
+    <row r="391" spans="1:1">
       <c r="A391" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" ht="14.4" spans="1:1">
+    <row r="392" spans="1:1">
       <c r="A392" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" ht="14.4" spans="1:1">
+    <row r="393" spans="1:1">
       <c r="A393" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" ht="14.4" spans="1:1">
+    <row r="394" spans="1:1">
       <c r="A394" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" ht="14.4" spans="1:1">
+    <row r="395" spans="1:1">
       <c r="A395" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" ht="14.4" spans="1:1">
+    <row r="396" spans="1:1">
       <c r="A396" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" ht="14.4" spans="1:1">
+    <row r="397" spans="1:1">
       <c r="A397" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" ht="14.4" spans="1:1">
+    <row r="398" spans="1:1">
       <c r="A398" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" ht="14.4" spans="1:1">
+    <row r="399" spans="1:1">
       <c r="A399" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" ht="14.4" spans="1:1">
+    <row r="400" spans="1:1">
       <c r="A400" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" ht="14.4" spans="1:1">
+    <row r="401" spans="1:1">
       <c r="A401" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" ht="14.4" spans="1:1">
+    <row r="402" spans="1:1">
       <c r="A402" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" ht="14.4" spans="1:1">
+    <row r="403" spans="1:1">
       <c r="A403" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" ht="14.4" spans="1:1">
+    <row r="404" spans="1:1">
       <c r="A404" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" ht="14.4" spans="1:1">
+    <row r="405" spans="1:1">
       <c r="A405" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" ht="14.4" spans="1:1">
+    <row r="406" spans="1:1">
       <c r="A406" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" ht="14.4" spans="1:1">
+    <row r="407" spans="1:1">
       <c r="A407" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" ht="14.4" spans="1:1">
+    <row r="408" spans="1:1">
       <c r="A408" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" ht="14.4" spans="1:1">
+    <row r="409" spans="1:1">
       <c r="A409" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" ht="14.4" spans="1:1">
+    <row r="410" spans="1:1">
       <c r="A410" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" ht="14.4" spans="1:1">
+    <row r="411" spans="1:1">
       <c r="A411" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" ht="14.4" spans="1:1">
+    <row r="412" spans="1:1">
       <c r="A412" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" ht="14.4" spans="1:1">
+    <row r="413" spans="1:1">
       <c r="A413" s="4" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" ht="14.4" spans="1:1">
+    <row r="414" spans="1:1">
       <c r="A414" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" ht="14.4" spans="1:1">
+    <row r="415" spans="1:1">
       <c r="A415" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" ht="14.4" spans="1:1">
+    <row r="416" spans="1:1">
       <c r="A416" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" ht="14.4" spans="1:1">
+    <row r="417" spans="1:1">
       <c r="A417" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" ht="14.4" spans="1:1">
+    <row r="418" spans="1:1">
       <c r="A418" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" ht="14.4" spans="1:1">
+    <row r="419" spans="1:1">
       <c r="A419" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" ht="14.4" spans="1:1">
+    <row r="420" spans="1:1">
       <c r="A420" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" ht="14.4" spans="1:1">
+    <row r="421" spans="1:1">
       <c r="A421" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" ht="14.4" spans="1:1">
+    <row r="422" spans="1:1">
       <c r="A422" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" ht="14.4" spans="1:1">
+    <row r="423" spans="1:1">
       <c r="A423" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" ht="14.4" spans="1:1">
+    <row r="424" spans="1:1">
       <c r="A424" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" ht="14.4" spans="1:1">
+    <row r="425" spans="1:1">
       <c r="A425" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" ht="14.4" spans="1:1">
+    <row r="426" spans="1:1">
       <c r="A426" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" ht="14.4" spans="1:1">
+    <row r="427" spans="1:1">
       <c r="A427" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" ht="14.4" spans="1:1">
+    <row r="428" spans="1:1">
       <c r="A428" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" ht="14.4" spans="1:1">
+    <row r="429" spans="1:1">
       <c r="A429" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" ht="14.4" spans="1:1">
+    <row r="430" spans="1:1">
       <c r="A430" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" ht="14.4" spans="1:1">
+    <row r="431" spans="1:1">
       <c r="A431" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" ht="14.4" spans="1:1">
+    <row r="432" spans="1:1">
       <c r="A432" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" ht="14.4" spans="1:1">
+    <row r="433" spans="1:1">
       <c r="A433" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" ht="14.4" spans="1:1">
+    <row r="434" spans="1:1">
       <c r="A434" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" ht="14.4" spans="1:1">
+    <row r="435" spans="1:1">
       <c r="A435" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" ht="14.4" spans="1:1">
+    <row r="436" spans="1:1">
       <c r="A436" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" ht="14.4" spans="1:1">
+    <row r="437" spans="1:1">
       <c r="A437" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" ht="14.4" spans="1:1">
+    <row r="438" spans="1:1">
       <c r="A438" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" ht="14.4" spans="1:1">
+    <row r="439" spans="1:1">
       <c r="A439" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" ht="14.4" spans="1:1">
+    <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" ht="14.4" spans="1:1">
+    <row r="441" spans="1:1">
       <c r="A441" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" ht="14.4" spans="1:1">
+    <row r="442" spans="1:1">
       <c r="A442" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" ht="14.4" spans="1:1">
+    <row r="443" spans="1:1">
       <c r="A443" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" ht="14.4" spans="1:1">
+    <row r="444" spans="1:1">
       <c r="A444" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" ht="14.4" spans="1:1">
+    <row r="445" spans="1:1">
       <c r="A445" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" ht="14.4" spans="1:1">
+    <row r="446" spans="1:1">
       <c r="A446" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" ht="14.4" spans="1:1">
+    <row r="447" spans="1:1">
       <c r="A447" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" ht="14.4" spans="1:1">
+    <row r="448" spans="1:1">
       <c r="A448" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" ht="14.4" spans="1:1">
+    <row r="449" spans="1:1">
       <c r="A449" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" ht="14.4" spans="1:1">
+    <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" ht="14.4" spans="1:1">
+    <row r="451" spans="1:1">
       <c r="A451" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="452" ht="14.4" spans="1:1">
+    <row r="452" spans="1:1">
       <c r="A452" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" ht="14.4" spans="1:1">
+    <row r="453" spans="1:1">
       <c r="A453" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" ht="14.4" spans="1:1">
+    <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" ht="14.4" spans="1:1">
+    <row r="455" spans="1:1">
       <c r="A455" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" ht="14.4" spans="1:1">
+    <row r="456" spans="1:1">
       <c r="A456" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" ht="14.4" spans="1:1">
+    <row r="457" spans="1:1">
       <c r="A457" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" ht="14.4" spans="1:1">
+    <row r="458" spans="1:1">
       <c r="A458" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" ht="14.4" spans="1:1">
+    <row r="459" spans="1:1">
       <c r="A459" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" ht="14.4" spans="1:1">
+    <row r="460" spans="1:1">
       <c r="A460" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" ht="14.4" spans="1:1">
+    <row r="461" spans="1:1">
       <c r="A461" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" ht="14.4" spans="1:1">
+    <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" ht="14.4" spans="1:1">
+    <row r="463" spans="1:1">
       <c r="A463" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" ht="14.4" spans="1:1">
+    <row r="464" spans="1:1">
       <c r="A464" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" ht="14.4" spans="1:1">
+    <row r="465" spans="1:1">
       <c r="A465" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" ht="14.4" spans="1:1">
+    <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" ht="14.4" spans="1:1">
+    <row r="467" spans="1:1">
       <c r="A467" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" ht="14.4" spans="1:1">
+    <row r="468" spans="1:1">
       <c r="A468" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="469" ht="14.4" spans="1:1">
+    <row r="469" spans="1:1">
       <c r="A469" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" ht="14.4" spans="1:1">
+    <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" ht="14.4" spans="1:1">
+    <row r="471" spans="1:1">
       <c r="A471" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" ht="14.4" spans="1:1">
+    <row r="472" spans="1:1">
       <c r="A472" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" ht="14.4" spans="1:1">
+    <row r="473" spans="1:1">
       <c r="A473" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="474" ht="14.4" spans="1:1">
+    <row r="474" spans="1:1">
       <c r="A474" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" ht="14.4" spans="1:1">
+    <row r="475" spans="1:1">
       <c r="A475" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" ht="14.4" spans="1:1">
+    <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" ht="14.4" spans="1:1">
+    <row r="477" spans="1:1">
       <c r="A477" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" ht="14.4" spans="1:1">
+    <row r="478" spans="1:1">
       <c r="A478" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" ht="14.4" spans="1:1">
+    <row r="479" spans="1:1">
       <c r="A479" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" ht="14.4" spans="1:1">
+    <row r="480" spans="1:1">
       <c r="A480" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" ht="14.4" spans="1:1">
+    <row r="481" spans="1:1">
       <c r="A481" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="482" ht="14.4" spans="1:1">
+    <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="483" ht="14.4" spans="1:1">
+    <row r="483" spans="1:1">
       <c r="A483" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" ht="14.4" spans="1:1">
+    <row r="484" spans="1:1">
       <c r="A484" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="485" ht="14.4" spans="1:1">
+    <row r="485" spans="1:1">
       <c r="A485" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="486" ht="14.4" spans="1:1">
+    <row r="486" spans="1:1">
       <c r="A486" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" ht="14.4" spans="1:1">
+    <row r="487" spans="1:1">
       <c r="A487" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" ht="14.4" spans="1:1">
+    <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" ht="14.4" spans="1:1">
+    <row r="489" spans="1:1">
       <c r="A489" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" ht="14.4" spans="1:1">
+    <row r="490" spans="1:1">
       <c r="A490" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="491" ht="14.4" spans="1:1">
+    <row r="491" spans="1:1">
       <c r="A491" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="492" ht="14.4" spans="1:1">
+    <row r="492" spans="1:1">
       <c r="A492" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" ht="14.4" spans="1:1">
+    <row r="493" spans="1:1">
       <c r="A493" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" ht="14.4" spans="1:1">
+    <row r="494" spans="1:1">
       <c r="A494" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" ht="14.4" spans="1:1">
+    <row r="495" spans="1:1">
       <c r="A495" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" ht="14.4" spans="1:1">
+    <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" ht="14.4" spans="1:1">
+    <row r="497" spans="1:1">
       <c r="A497" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" ht="14.4" spans="1:1">
+    <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" ht="14.4" spans="1:1">
+    <row r="499" spans="1:1">
       <c r="A499" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" ht="14.4" spans="1:1">
+    <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" ht="14.4" spans="1:1">
+    <row r="501" spans="1:1">
       <c r="A501" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="502" ht="14.4" spans="1:1">
+    <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="503" ht="14.4" spans="1:1">
+    <row r="503" spans="1:1">
       <c r="A503" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="504" ht="14.4" spans="1:1">
+    <row r="504" spans="1:1">
       <c r="A504" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="505" ht="14.4" spans="1:1">
+    <row r="505" spans="1:1">
       <c r="A505" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="506" ht="14.4" spans="1:1">
+    <row r="506" spans="1:1">
       <c r="A506" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="507" ht="14.4" spans="1:1">
+    <row r="507" spans="1:1">
       <c r="A507" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="508" ht="14.4" spans="1:1">
+    <row r="508" spans="1:1">
       <c r="A508" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="509" ht="14.4" spans="1:1">
+    <row r="509" spans="1:1">
       <c r="A509" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="510" ht="14.4" spans="1:1">
+    <row r="510" spans="1:1">
       <c r="A510" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="511" ht="14.4" spans="1:1">
+    <row r="511" spans="1:1">
       <c r="A511" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="512" ht="14.4" spans="1:1">
+    <row r="512" spans="1:1">
       <c r="A512" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="513" ht="14.4" spans="1:1">
+    <row r="513" spans="1:1">
       <c r="A513" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="514" ht="14.4" spans="1:1">
+    <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="515" ht="14.4" spans="1:1">
+    <row r="515" spans="1:1">
       <c r="A515" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="516" ht="14.4" spans="1:1">
+    <row r="516" spans="1:1">
       <c r="A516" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="517" ht="14.4" spans="1:1">
+    <row r="517" spans="1:1">
       <c r="A517" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" ht="14.4" spans="1:1">
+    <row r="518" spans="1:1">
       <c r="A518" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" ht="14.4" spans="1:1">
+    <row r="519" spans="1:1">
       <c r="A519" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" ht="14.4" spans="1:1">
+    <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" ht="14.4" spans="1:1">
+    <row r="521" spans="1:1">
       <c r="A521" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" ht="14.4" spans="1:1">
+    <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" ht="14.4" spans="1:1">
+    <row r="523" spans="1:1">
       <c r="A523" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="524" ht="14.4" spans="1:1">
+    <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="525" ht="14.4" spans="1:1">
+    <row r="525" spans="1:1">
       <c r="A525" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="526" ht="14.4" spans="1:1">
+    <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" ht="14.4" spans="1:1">
+    <row r="527" spans="1:1">
       <c r="A527" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="528" ht="14.4" spans="1:1">
+    <row r="528" spans="1:1">
       <c r="A528" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="529" ht="14.4" spans="1:1">
+    <row r="529" spans="1:1">
       <c r="A529" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="530" ht="14.4" spans="1:1">
+    <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="531" ht="14.4" spans="1:1">
+    <row r="531" spans="1:1">
       <c r="A531" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="532" ht="14.4" spans="1:1">
+    <row r="532" spans="1:1">
       <c r="A532" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="533" ht="14.4" spans="1:1">
+    <row r="533" spans="1:1">
       <c r="A533" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="534" ht="14.4" spans="1:1">
+    <row r="534" spans="1:1">
       <c r="A534" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="535" ht="14.4" spans="1:1">
+    <row r="535" spans="1:1">
       <c r="A535" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="536" ht="14.4" spans="1:1">
+    <row r="536" spans="1:1">
       <c r="A536" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="537" ht="14.4" spans="1:1">
+    <row r="537" spans="1:1">
       <c r="A537" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="538" ht="14.4" spans="1:1">
+    <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="539" ht="14.4" spans="1:1">
+    <row r="539" spans="1:1">
       <c r="A539" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="540" ht="14.4" spans="1:1">
+    <row r="540" spans="1:1">
       <c r="A540" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="541" ht="14.4" spans="1:1">
+    <row r="541" spans="1:1">
       <c r="A541" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="542" ht="14.4" spans="1:1">
+    <row r="542" spans="1:1">
       <c r="A542" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="543" ht="14.4" spans="1:1">
+    <row r="543" spans="1:1">
       <c r="A543" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="544" ht="14.4" spans="1:1">
+    <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="545" ht="14.4" spans="1:1">
+    <row r="545" spans="1:1">
       <c r="A545" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="546" ht="14.4" spans="1:1">
+    <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="547" ht="14.4" spans="1:1">
+    <row r="547" spans="1:1">
       <c r="A547" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="548" ht="14.4" spans="1:1">
+    <row r="548" spans="1:1">
       <c r="A548" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="549" ht="14.4" spans="1:1">
+    <row r="549" spans="1:1">
       <c r="A549" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="550" ht="14.4" spans="1:1">
+    <row r="550" spans="1:1">
       <c r="A550" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="551" ht="14.4" spans="1:1">
+    <row r="551" spans="1:1">
       <c r="A551" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="552" ht="14.4" spans="1:1">
+    <row r="552" spans="1:1">
       <c r="A552" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="553" ht="14.4" spans="1:1">
+    <row r="553" spans="1:1">
       <c r="A553" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="554" ht="14.4" spans="1:1">
+    <row r="554" spans="1:1">
       <c r="A554" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="555" ht="14.4" spans="1:1">
+    <row r="555" spans="1:1">
       <c r="A555" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="556" ht="14.4" spans="1:1">
+    <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="557" ht="14.4" spans="1:1">
+    <row r="557" spans="1:1">
       <c r="A557" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="558" ht="14.4" spans="1:1">
+    <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="559" ht="14.4" spans="1:1">
+    <row r="559" spans="1:1">
       <c r="A559" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="560" ht="14.4" spans="1:1">
+    <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="561" ht="14.4" spans="1:1">
+    <row r="561" spans="1:1">
       <c r="A561" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="562" ht="14.4" spans="1:1">
+    <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="563" ht="14.4" spans="1:1">
+    <row r="563" spans="1:1">
       <c r="A563" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="564" ht="14.4" spans="1:1">
+    <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="565" ht="14.4" spans="1:1">
+    <row r="565" spans="1:1">
       <c r="A565" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="566" ht="14.4" spans="1:1">
+    <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="567" ht="14.4" spans="1:1">
+    <row r="567" spans="1:1">
       <c r="A567" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="568" ht="14.4" spans="1:1">
+    <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="569" ht="14.4" spans="1:1">
+    <row r="569" spans="1:1">
       <c r="A569" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="570" ht="14.4" spans="1:1">
+    <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="571" ht="14.4" spans="1:1">
+    <row r="571" spans="1:1">
       <c r="A571" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="572" ht="14.4" spans="1:1">
+    <row r="572" spans="1:1">
       <c r="A572" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="573" ht="14.4" spans="1:1">
+    <row r="573" spans="1:1">
       <c r="A573" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="574" ht="14.4" spans="1:1">
+    <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="575" ht="14.4" spans="1:1">
+    <row r="575" spans="1:1">
       <c r="A575" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="576" ht="14.4" spans="1:1">
+    <row r="576" spans="1:1">
       <c r="A576" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="577" ht="14.4" spans="1:1">
+    <row r="577" spans="1:1">
       <c r="A577" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="578" ht="14.4" spans="1:1">
+    <row r="578" spans="1:1">
       <c r="A578" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="579" ht="14.4" spans="1:1">
+    <row r="579" spans="1:1">
       <c r="A579" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="580" ht="14.4" spans="1:1">
+    <row r="580" spans="1:1">
       <c r="A580" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="581" ht="14.4" spans="1:1">
+    <row r="581" spans="1:1">
       <c r="A581" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="582" ht="14.4" spans="1:1">
+    <row r="582" spans="1:1">
       <c r="A582" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="583" ht="14.4" spans="1:1">
+    <row r="583" spans="1:1">
       <c r="A583" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="584" ht="14.4" spans="1:1">
+    <row r="584" spans="1:1">
       <c r="A584" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="585" ht="14.4" spans="1:1">
+    <row r="585" spans="1:1">
       <c r="A585" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="586" ht="14.4" spans="1:1">
+    <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="587" ht="14.4" spans="1:1">
+    <row r="587" spans="1:1">
       <c r="A587" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="588" ht="14.4" spans="1:1">
+    <row r="588" spans="1:1">
       <c r="A588" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="589" ht="14.4" spans="1:1">
+    <row r="589" spans="1:1">
       <c r="A589" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="590" ht="14.4" spans="1:1">
+    <row r="590" spans="1:1">
       <c r="A590" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="591" ht="14.4" spans="1:1">
+    <row r="591" spans="1:1">
       <c r="A591" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="592" ht="14.4" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="593" ht="14.4" spans="1:1">
+    <row r="593" spans="1:1">
       <c r="A593" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="594" ht="14.4" spans="1:1">
+    <row r="594" spans="1:1">
       <c r="A594" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="595" ht="14.4" spans="1:1">
+    <row r="595" spans="1:1">
       <c r="A595" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="596" ht="14.4" spans="1:1">
+    <row r="596" spans="1:1">
       <c r="A596" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="597" ht="14.4" spans="1:1">
+    <row r="597" spans="1:1">
       <c r="A597" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="598" ht="14.4" spans="1:1">
+    <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="599" ht="14.4" spans="1:1">
+    <row r="599" spans="1:1">
       <c r="A599" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="600" ht="14.4" spans="1:1">
+    <row r="600" spans="1:1">
       <c r="A600" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="601" ht="14.4" spans="1:1">
+    <row r="601" spans="1:1">
       <c r="A601" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="602" ht="14.4" spans="1:1">
+    <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="603" ht="14.4" spans="1:1">
+    <row r="603" spans="1:1">
       <c r="A603" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="604" ht="14.4" spans="1:1">
+    <row r="604" spans="1:1">
       <c r="A604" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="605" ht="14.4" spans="1:1">
+    <row r="605" spans="1:1">
       <c r="A605" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="606" ht="14.4" spans="1:1">
+    <row r="606" spans="1:1">
       <c r="A606" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="607" ht="14.4" spans="1:1">
+    <row r="607" spans="1:1">
       <c r="A607" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="608" ht="14.4" spans="1:1">
+    <row r="608" spans="1:1">
       <c r="A608" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="609" ht="14.4" spans="1:1">
+    <row r="609" spans="1:1">
       <c r="A609" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="610" ht="14.4" spans="1:1">
+    <row r="610" spans="1:1">
       <c r="A610" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="611" ht="14.4" spans="1:1">
+    <row r="611" spans="1:1">
       <c r="A611" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="612" ht="14.4" spans="1:1">
+    <row r="612" spans="1:1">
       <c r="A612" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="613" ht="14.4" spans="1:1">
+    <row r="613" spans="1:1">
       <c r="A613" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="614" ht="14.4" spans="1:1">
+    <row r="614" spans="1:1">
       <c r="A614" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="615" ht="14.4" spans="1:1">
+    <row r="615" spans="1:1">
       <c r="A615" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="616" ht="14.4" spans="1:1">
+    <row r="616" spans="1:1">
       <c r="A616" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="617" ht="14.4" spans="1:1">
+    <row r="617" spans="1:1">
       <c r="A617" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="618" ht="14.4" spans="1:1">
+    <row r="618" spans="1:1">
       <c r="A618" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="619" ht="14.4" spans="1:1">
+    <row r="619" spans="1:1">
       <c r="A619" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="620" ht="14.4" spans="1:1">
+    <row r="620" spans="1:1">
       <c r="A620" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="621" ht="14.4" spans="1:1">
+    <row r="621" spans="1:1">
       <c r="A621" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="622" ht="14.4" spans="1:1">
+    <row r="622" spans="1:1">
       <c r="A622" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="623" ht="14.4" spans="1:1">
+    <row r="623" spans="1:1">
       <c r="A623" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="624" ht="14.4" spans="1:1">
+    <row r="624" spans="1:1">
       <c r="A624" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="625" ht="14.4" spans="1:1">
+    <row r="625" spans="1:1">
       <c r="A625" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="626" ht="14.4" spans="1:1">
+    <row r="626" spans="1:1">
       <c r="A626" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="627" ht="14.4" spans="1:1">
+    <row r="627" spans="1:1">
       <c r="A627" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="628" ht="14.4" spans="1:1">
+    <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="629" ht="14.4" spans="1:1">
+    <row r="629" spans="1:1">
       <c r="A629" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="630" ht="14.4" spans="1:1">
+    <row r="630" spans="1:1">
       <c r="A630" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="631" ht="14.4" spans="1:1">
+    <row r="631" spans="1:1">
       <c r="A631" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="632" ht="14.4" spans="1:1">
+    <row r="632" spans="1:1">
       <c r="A632" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="633" ht="14.4" spans="1:1">
+    <row r="633" spans="1:1">
       <c r="A633" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="634" ht="14.4" spans="1:1">
+    <row r="634" spans="1:1">
       <c r="A634" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="635" ht="14.4" spans="1:1">
+    <row r="635" spans="1:1">
       <c r="A635" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="636" ht="14.4" spans="1:1">
+    <row r="636" spans="1:1">
       <c r="A636" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="637" ht="14.4" spans="1:1">
+    <row r="637" spans="1:1">
       <c r="A637" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="638" ht="14.4" spans="1:1">
+    <row r="638" spans="1:1">
       <c r="A638" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="639" ht="14.4" spans="1:1">
+    <row r="639" spans="1:1">
       <c r="A639" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="640" ht="14.4" spans="1:1">
+    <row r="640" spans="1:1">
       <c r="A640" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="641" ht="14.4" spans="1:1">
+    <row r="641" spans="1:1">
       <c r="A641" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="642" ht="14.4" spans="1:1">
+    <row r="642" spans="1:1">
       <c r="A642" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="643" ht="14.4" spans="1:1">
+    <row r="643" spans="1:1">
       <c r="A643" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="644" ht="14.4" spans="1:1">
+    <row r="644" spans="1:1">
       <c r="A644" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="645" ht="14.4" spans="1:1">
+    <row r="645" spans="1:1">
       <c r="A645" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="646" ht="14.4" spans="1:1">
+    <row r="646" spans="1:1">
       <c r="A646" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="647" ht="14.4" spans="1:1">
+    <row r="647" spans="1:1">
       <c r="A647" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="648" ht="14.4" spans="1:1">
+    <row r="648" spans="1:1">
       <c r="A648" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="649" ht="14.4" spans="1:1">
+    <row r="649" spans="1:1">
       <c r="A649" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="650" ht="14.4" spans="1:1">
+    <row r="650" spans="1:1">
       <c r="A650" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="651" ht="14.4" spans="1:1">
+    <row r="651" spans="1:1">
       <c r="A651" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="652" ht="14.4" spans="1:1">
+    <row r="652" spans="1:1">
       <c r="A652" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="653" ht="14.4" spans="1:1">
+    <row r="653" spans="1:1">
       <c r="A653" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="654" ht="14.4" spans="1:1">
+    <row r="654" spans="1:1">
       <c r="A654" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="655" ht="14.4" spans="1:1">
+    <row r="655" spans="1:1">
       <c r="A655" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="656" ht="14.4" spans="1:1">
+    <row r="656" spans="1:1">
       <c r="A656" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="657" ht="14.4" spans="1:1">
+    <row r="657" spans="1:1">
       <c r="A657" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="658" ht="14.4" spans="1:1">
+    <row r="658" spans="1:1">
       <c r="A658" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="659" ht="14.4" spans="1:1">
+    <row r="659" spans="1:1">
       <c r="A659" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="660" ht="14.4" spans="1:1">
+    <row r="660" spans="1:1">
       <c r="A660" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="661" ht="14.4" spans="1:1">
+    <row r="661" spans="1:1">
       <c r="A661" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="662" ht="14.4" spans="1:1">
+    <row r="662" spans="1:1">
       <c r="A662" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="663" ht="14.4" spans="1:1">
+    <row r="663" spans="1:1">
       <c r="A663" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="664" ht="14.4" spans="1:1">
+    <row r="664" spans="1:1">
       <c r="A664" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="665" ht="14.4" spans="1:1">
+    <row r="665" spans="1:1">
       <c r="A665" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="666" ht="14.4" spans="1:1">
+    <row r="666" spans="1:1">
       <c r="A666" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="667" ht="14.4" spans="1:1">
+    <row r="667" spans="1:1">
       <c r="A667" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="668" ht="14.4" spans="1:1">
+    <row r="668" spans="1:1">
       <c r="A668" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="669" ht="14.4" spans="1:1">
+    <row r="669" spans="1:1">
       <c r="A669" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="670" ht="14.4" spans="1:1">
+    <row r="670" spans="1:1">
       <c r="A670" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="671" ht="14.4" spans="1:1">
+    <row r="671" spans="1:1">
       <c r="A671" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="672" ht="14.4" spans="1:1">
+    <row r="672" spans="1:1">
       <c r="A672" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="673" ht="14.4" spans="1:1">
+    <row r="673" spans="1:1">
       <c r="A673" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="674" ht="14.4" spans="1:1">
+    <row r="674" spans="1:1">
       <c r="A674" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="675" ht="14.4" spans="1:1">
+    <row r="675" spans="1:1">
       <c r="A675" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="676" ht="14.4" spans="1:1">
+    <row r="676" spans="1:1">
       <c r="A676" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="677" ht="14.4" spans="1:1">
+    <row r="677" spans="1:1">
       <c r="A677" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="678" ht="14.4" spans="1:1">
+    <row r="678" spans="1:1">
       <c r="A678" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="679" ht="14.4" spans="1:1">
+    <row r="679" spans="1:1">
       <c r="A679" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="680" ht="14.4" spans="1:1">
+    <row r="680" spans="1:1">
       <c r="A680" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="681" ht="14.4" spans="1:1">
+    <row r="681" spans="1:1">
       <c r="A681" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="682" ht="14.4" spans="1:1">
+    <row r="682" spans="1:1">
       <c r="A682" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="683" ht="14.4" spans="1:1">
+    <row r="683" spans="1:1">
       <c r="A683" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="684" ht="14.4" spans="1:1">
+    <row r="684" spans="1:1">
       <c r="A684" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="685" ht="14.4" spans="1:1">
+    <row r="685" spans="1:1">
       <c r="A685" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="686" ht="14.4" spans="1:1">
+    <row r="686" spans="1:1">
       <c r="A686" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="687" ht="14.4" spans="1:1">
+    <row r="687" spans="1:1">
       <c r="A687" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="688" ht="14.4" spans="1:1">
+    <row r="688" spans="1:1">
       <c r="A688" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="689" ht="14.4" spans="1:1">
+    <row r="689" spans="1:1">
       <c r="A689" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="690" ht="14.4" spans="1:1">
+    <row r="690" spans="1:1">
       <c r="A690" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="691" ht="14.4" spans="1:1">
+    <row r="691" spans="1:1">
       <c r="A691" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="692" ht="14.4" spans="1:1">
+    <row r="692" spans="1:1">
       <c r="A692" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="693" ht="14.4" spans="1:1">
+    <row r="693" spans="1:1">
       <c r="A693" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="694" ht="14.4" spans="1:1">
+    <row r="694" spans="1:1">
       <c r="A694" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="695" ht="14.4" spans="1:1">
+    <row r="695" spans="1:1">
       <c r="A695" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="696" ht="14.4" spans="1:1">
+    <row r="696" spans="1:1">
       <c r="A696" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="697" ht="14.4" spans="1:1">
+    <row r="697" spans="1:1">
       <c r="A697" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="698" ht="14.4" spans="1:1">
+    <row r="698" spans="1:1">
       <c r="A698" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="699" ht="14.4" spans="1:1">
+    <row r="699" spans="1:1">
       <c r="A699" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="700" ht="14.4" spans="1:1">
+    <row r="700" spans="1:1">
       <c r="A700" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="701" ht="14.4" spans="1:1">
+    <row r="701" spans="1:1">
       <c r="A701" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="702" ht="14.4" spans="1:1">
+    <row r="702" spans="1:1">
       <c r="A702" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="703" ht="14.4" spans="1:1">
+    <row r="703" spans="1:1">
       <c r="A703" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="704" ht="14.4" spans="1:1">
+    <row r="704" spans="1:1">
       <c r="A704" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="705" ht="14.4" spans="1:1">
+    <row r="705" spans="1:1">
       <c r="A705" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="706" ht="14.4" spans="1:1">
+    <row r="706" spans="1:1">
       <c r="A706" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="707" ht="14.4" spans="1:1">
+    <row r="707" spans="1:1">
       <c r="A707" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="708" ht="14.4" spans="1:1">
+    <row r="708" spans="1:1">
       <c r="A708" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="709" ht="14.4" spans="1:1">
+    <row r="709" spans="1:1">
       <c r="A709" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="710" ht="14.4" spans="1:1">
+    <row r="710" spans="1:1">
       <c r="A710" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="711" ht="14.4" spans="1:1">
+    <row r="711" spans="1:1">
       <c r="A711" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="712" ht="14.4" spans="1:1">
+    <row r="712" spans="1:1">
       <c r="A712" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="713" ht="14.4" spans="1:1">
+    <row r="713" spans="1:1">
       <c r="A713" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="714" ht="14.4" spans="1:1">
+    <row r="714" spans="1:1">
       <c r="A714" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="715" ht="14.4" spans="1:1">
+    <row r="715" spans="1:1">
       <c r="A715" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="716" ht="14.4" spans="1:1">
+    <row r="716" spans="1:1">
       <c r="A716" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="717" ht="14.4" spans="1:1">
+    <row r="717" spans="1:1">
       <c r="A717" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="718" ht="14.4" spans="1:1">
+    <row r="718" spans="1:1">
       <c r="A718" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="719" ht="14.4" spans="1:1">
+    <row r="719" spans="1:1">
       <c r="A719" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="720" ht="14.4" spans="1:1">
+    <row r="720" spans="1:1">
       <c r="A720" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="721" ht="14.4" spans="1:1">
+    <row r="721" spans="1:1">
       <c r="A721" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="722" ht="14.4" spans="1:1">
+    <row r="722" spans="1:1">
       <c r="A722" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="723" ht="14.4" spans="1:1">
+    <row r="723" spans="1:1">
       <c r="A723" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="724" ht="14.4" spans="1:1">
+    <row r="724" spans="1:1">
       <c r="A724" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="725" ht="14.4" spans="1:1">
+    <row r="725" spans="1:1">
       <c r="A725" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="726" ht="14.4" spans="1:1">
+    <row r="726" spans="1:1">
       <c r="A726" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="727" ht="14.4" spans="1:1">
+    <row r="727" spans="1:1">
       <c r="A727" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="728" ht="14.4" spans="1:1">
+    <row r="728" spans="1:1">
       <c r="A728" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="729" ht="14.4" spans="1:1">
+    <row r="729" spans="1:1">
       <c r="A729" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="730" ht="14.4" spans="1:1">
+    <row r="730" spans="1:1">
       <c r="A730" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="731" ht="14.4" spans="1:1">
+    <row r="731" spans="1:1">
       <c r="A731" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="732" ht="14.4" spans="1:1">
+    <row r="732" spans="1:1">
       <c r="A732" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="733" ht="14.4" spans="1:1">
+    <row r="733" spans="1:1">
       <c r="A733" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="734" ht="14.4" spans="1:1">
+    <row r="734" spans="1:1">
       <c r="A734" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="735" ht="14.4" spans="1:1">
+    <row r="735" spans="1:1">
       <c r="A735" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="736" ht="14.4" spans="1:1">
+    <row r="736" spans="1:1">
       <c r="A736" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="737" ht="14.4" spans="1:1">
+    <row r="737" spans="1:1">
       <c r="A737" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="738" ht="14.4" spans="1:1">
+    <row r="738" spans="1:1">
       <c r="A738" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="739" ht="14.4" spans="1:1">
+    <row r="739" spans="1:1">
       <c r="A739" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="740" ht="14.4" spans="1:1">
+    <row r="740" spans="1:1">
       <c r="A740" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="741" ht="14.4" spans="1:1">
+    <row r="741" spans="1:1">
       <c r="A741" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="742" ht="14.4" spans="1:1">
+    <row r="742" spans="1:1">
       <c r="A742" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="743" ht="14.4" spans="1:1">
+    <row r="743" spans="1:1">
       <c r="A743" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="744" ht="14.4" spans="1:1">
+    <row r="744" spans="1:1">
       <c r="A744" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="745" ht="14.4" spans="1:1">
+    <row r="745" spans="1:1">
       <c r="A745" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="746" ht="14.4" spans="1:1">
+    <row r="746" spans="1:1">
       <c r="A746" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="747" ht="14.4" spans="1:1">
+    <row r="747" spans="1:1">
       <c r="A747" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="748" ht="14.4" spans="1:1">
+    <row r="748" spans="1:1">
       <c r="A748" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="749" ht="14.4" spans="1:1">
+    <row r="749" spans="1:1">
       <c r="A749" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="750" ht="14.4" spans="1:1">
+    <row r="750" spans="1:1">
       <c r="A750" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="751" ht="14.4" spans="1:1">
+    <row r="751" spans="1:1">
       <c r="A751" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="752" ht="14.4" spans="1:1">
+    <row r="752" spans="1:1">
       <c r="A752" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="753" ht="14.4" spans="1:1">
+    <row r="753" spans="1:1">
       <c r="A753" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="754" ht="14.4" spans="1:1">
+    <row r="754" spans="1:1">
       <c r="A754" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="755" ht="14.4" spans="1:1">
+    <row r="755" spans="1:1">
       <c r="A755" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="756" ht="14.4" spans="1:1">
+    <row r="756" spans="1:1">
       <c r="A756" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="757" ht="14.4" spans="1:1">
+    <row r="757" spans="1:1">
       <c r="A757" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="758" ht="14.4" spans="1:1">
+    <row r="758" spans="1:1">
       <c r="A758" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="759" ht="14.4" spans="1:1">
+    <row r="759" spans="1:1">
       <c r="A759" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="760" ht="14.4" spans="1:1">
+    <row r="760" spans="1:1">
       <c r="A760" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="761" ht="14.4" spans="1:1">
+    <row r="761" spans="1:1">
       <c r="A761" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="762" ht="14.4" spans="1:1">
+    <row r="762" spans="1:1">
       <c r="A762" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="763" ht="14.4" spans="1:1">
+    <row r="763" spans="1:1">
       <c r="A763" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="764" ht="14.4" spans="1:1">
+    <row r="764" spans="1:1">
       <c r="A764" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="765" ht="14.4" spans="1:1">
+    <row r="765" spans="1:1">
       <c r="A765" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="766" ht="14.4" spans="1:1">
+    <row r="766" spans="1:1">
       <c r="A766" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="767" ht="14.4" spans="1:1">
+    <row r="767" spans="1:1">
       <c r="A767" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="768" ht="14.4" spans="1:1">
+    <row r="768" spans="1:1">
       <c r="A768" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="769" ht="14.4" spans="1:1">
+    <row r="769" spans="1:1">
       <c r="A769" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="770" ht="14.4" spans="1:1">
+    <row r="770" spans="1:1">
       <c r="A770" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="771" ht="14.4" spans="1:1">
+    <row r="771" spans="1:1">
       <c r="A771" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="772" ht="14.4" spans="1:1">
+    <row r="772" spans="1:1">
       <c r="A772" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="773" ht="14.4" spans="1:1">
+    <row r="773" spans="1:1">
       <c r="A773" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="774" ht="14.4" spans="1:1">
+    <row r="774" spans="1:1">
       <c r="A774" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="775" ht="14.4" spans="1:1">
+    <row r="775" spans="1:1">
       <c r="A775" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="776" ht="14.4" spans="1:1">
+    <row r="776" spans="1:1">
       <c r="A776" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="777" ht="14.4" spans="1:1">
+    <row r="777" spans="1:1">
       <c r="A777" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="778" ht="14.4" spans="1:1">
+    <row r="778" spans="1:1">
       <c r="A778" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="779" ht="14.4" spans="1:1">
+    <row r="779" spans="1:1">
       <c r="A779" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="780" ht="14.4" spans="1:1">
+    <row r="780" spans="1:1">
       <c r="A780" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="781" ht="14.4" spans="1:1">
+    <row r="781" spans="1:1">
       <c r="A781" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="782" ht="14.4" spans="1:1">
+    <row r="782" spans="1:1">
       <c r="A782" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="783" ht="14.4" spans="1:1">
+    <row r="783" spans="1:1">
       <c r="A783" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="784" ht="14.4" spans="1:1">
+    <row r="784" spans="1:1">
       <c r="A784" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="785" ht="14.4" spans="1:1">
+    <row r="785" spans="1:1">
       <c r="A785" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="786" ht="14.4" spans="1:1">
+    <row r="786" spans="1:1">
       <c r="A786" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="787" ht="14.4" spans="1:1">
+    <row r="787" spans="1:1">
       <c r="A787" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="788" ht="14.4" spans="1:1">
+    <row r="788" spans="1:1">
       <c r="A788" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="789" ht="14.4" spans="1:1">
+    <row r="789" spans="1:1">
       <c r="A789" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="790" ht="14.4" spans="1:1">
+    <row r="790" spans="1:1">
       <c r="A790" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="791" ht="14.4" spans="1:1">
+    <row r="791" spans="1:1">
       <c r="A791" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="792" ht="14.4" spans="1:1">
+    <row r="792" spans="1:1">
       <c r="A792" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="793" ht="14.4" spans="1:1">
+    <row r="793" spans="1:1">
       <c r="A793" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="794" ht="14.4" spans="1:1">
+    <row r="794" spans="1:1">
       <c r="A794" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="795" ht="14.4" spans="1:1">
+    <row r="795" spans="1:1">
       <c r="A795" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="796" ht="14.4" spans="1:1">
+    <row r="796" spans="1:1">
       <c r="A796" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="797" ht="14.4" spans="1:1">
+    <row r="797" spans="1:1">
       <c r="A797" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="798" ht="14.4" spans="1:1">
+    <row r="798" spans="1:1">
       <c r="A798" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="799" ht="14.4" spans="1:1">
+    <row r="799" spans="1:1">
       <c r="A799" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="800" ht="14.4" spans="1:1">
+    <row r="800" spans="1:1">
       <c r="A800" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="801" ht="14.4" spans="1:1">
+    <row r="801" spans="1:1">
       <c r="A801" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="802" ht="14.4" spans="1:1">
+    <row r="802" spans="1:1">
       <c r="A802" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="803" ht="14.4" spans="1:1">
+    <row r="803" spans="1:1">
       <c r="A803" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="804" ht="14.4" spans="1:1">
+    <row r="804" spans="1:1">
       <c r="A804" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="805" ht="14.4" spans="1:1">
+    <row r="805" spans="1:1">
       <c r="A805" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="806" ht="14.4" spans="1:1">
+    <row r="806" spans="1:1">
       <c r="A806" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="807" ht="14.4" spans="1:1">
+    <row r="807" spans="1:1">
       <c r="A807" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="808" ht="14.4" spans="1:1">
+    <row r="808" spans="1:1">
       <c r="A808" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="809" ht="14.4" spans="1:1">
+    <row r="809" spans="1:1">
       <c r="A809" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="810" ht="14.4" spans="1:1">
+    <row r="810" spans="1:1">
       <c r="A810" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="811" ht="14.4" spans="1:1">
+    <row r="811" spans="1:1">
       <c r="A811" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="812" ht="14.4" spans="1:1">
+    <row r="812" spans="1:1">
       <c r="A812" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="813" ht="14.4" spans="1:1">
+    <row r="813" spans="1:1">
       <c r="A813" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="814" ht="14.4" spans="1:1">
+    <row r="814" spans="1:1">
       <c r="A814" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="815" ht="14.4" spans="1:1">
+    <row r="815" spans="1:1">
       <c r="A815" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="816" ht="14.4" spans="1:1">
+    <row r="816" spans="1:1">
       <c r="A816" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="817" ht="14.4" spans="1:1">
+    <row r="817" spans="1:1">
       <c r="A817" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="818" ht="14.4" spans="1:1">
+    <row r="818" spans="1:1">
       <c r="A818" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="819" ht="14.4" spans="1:1">
+    <row r="819" spans="1:1">
       <c r="A819" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="820" ht="14.4" spans="1:1">
+    <row r="820" spans="1:1">
       <c r="A820" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="821" ht="14.4" spans="1:1">
+    <row r="821" spans="1:1">
       <c r="A821" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="822" ht="14.4" spans="1:1">
+    <row r="822" spans="1:1">
       <c r="A822" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="823" ht="14.4" spans="1:1">
+    <row r="823" spans="1:1">
       <c r="A823" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="824" ht="14.4" spans="1:1">
+    <row r="824" spans="1:1">
       <c r="A824" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="825" ht="14.4" spans="1:1">
+    <row r="825" spans="1:1">
       <c r="A825" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="826" ht="14.4" spans="1:1">
+    <row r="826" spans="1:1">
       <c r="A826" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="827" ht="14.4" spans="1:1">
+    <row r="827" spans="1:1">
       <c r="A827" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="828" ht="14.4" spans="1:1">
+    <row r="828" spans="1:1">
       <c r="A828" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="829" ht="14.4" spans="1:1">
+    <row r="829" spans="1:1">
       <c r="A829" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="830" ht="14.4" spans="1:1">
+    <row r="830" spans="1:1">
       <c r="A830" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="831" ht="14.4" spans="1:1">
+    <row r="831" spans="1:1">
       <c r="A831" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="832" ht="14.4" spans="1:1">
+    <row r="832" spans="1:1">
       <c r="A832" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="833" ht="14.4" spans="1:1">
+    <row r="833" spans="1:1">
       <c r="A833" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="834" ht="14.4" spans="1:1">
+    <row r="834" spans="1:1">
       <c r="A834" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="835" ht="14.4" spans="1:1">
+    <row r="835" spans="1:1">
       <c r="A835" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="836" ht="14.4" spans="1:1">
+    <row r="836" spans="1:1">
       <c r="A836" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="837" ht="14.4" spans="1:1">
+    <row r="837" spans="1:1">
       <c r="A837" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="838" ht="14.4" spans="1:1">
+    <row r="838" spans="1:1">
       <c r="A838" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="839" ht="14.4" spans="1:1">
+    <row r="839" spans="1:1">
       <c r="A839" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="840" ht="14.4" spans="1:1">
+    <row r="840" spans="1:1">
       <c r="A840" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="841" ht="14.4" spans="1:1">
+    <row r="841" spans="1:1">
       <c r="A841" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="842" ht="14.4" spans="1:1">
+    <row r="842" spans="1:1">
       <c r="A842" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="843" ht="14.4" spans="1:1">
+    <row r="843" spans="1:1">
       <c r="A843" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="844" ht="14.4" spans="1:1">
+    <row r="844" spans="1:1">
       <c r="A844" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="845" ht="14.4" spans="1:1">
+    <row r="845" spans="1:1">
       <c r="A845" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="846" ht="14.4" spans="1:1">
+    <row r="846" spans="1:1">
       <c r="A846" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="847" ht="14.4" spans="1:1">
+    <row r="847" spans="1:1">
       <c r="A847" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="848" ht="14.4" spans="1:1">
+    <row r="848" spans="1:1">
       <c r="A848" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="849" ht="14.4" spans="1:1">
+    <row r="849" spans="1:1">
       <c r="A849" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="850" ht="14.4" spans="1:1">
+    <row r="850" spans="1:1">
       <c r="A850" s="1" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="851" ht="14.4" spans="1:1">
+    <row r="851" spans="1:1">
       <c r="A851" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="852" ht="14.4" spans="1:1">
+    <row r="852" spans="1:1">
       <c r="A852" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="853" ht="14.4" spans="1:1">
+    <row r="853" spans="1:1">
       <c r="A853" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="854" ht="14.4" spans="1:1">
+    <row r="854" spans="1:1">
       <c r="A854" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="855" ht="14.4" spans="1:1">
+    <row r="855" spans="1:1">
       <c r="A855" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="856" ht="14.4" spans="1:1">
+    <row r="856" spans="1:1">
       <c r="A856" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="857" ht="14.4" spans="1:1">
+    <row r="857" spans="1:1">
       <c r="A857" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="858" ht="14.4" spans="1:1">
+    <row r="858" spans="1:1">
       <c r="A858" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="859" ht="14.4" spans="1:1">
+    <row r="859" spans="1:1">
       <c r="A859" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="860" ht="14.4" spans="1:1">
+    <row r="860" spans="1:1">
       <c r="A860" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="861" ht="14.4" spans="1:1">
+    <row r="861" spans="1:1">
       <c r="A861" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="862" ht="14.4" spans="1:1">
+    <row r="862" spans="1:1">
       <c r="A862" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="863" ht="14.4" spans="1:1">
+    <row r="863" spans="1:1">
       <c r="A863" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="864" ht="14.4" spans="1:1">
+    <row r="864" spans="1:1">
       <c r="A864" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="865" ht="14.4" spans="1:1">
+    <row r="865" spans="1:1">
       <c r="A865" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="866" ht="14.4" spans="1:1">
+    <row r="866" spans="1:1">
       <c r="A866" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="867" ht="14.4" spans="1:1">
+    <row r="867" spans="1:1">
       <c r="A867" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="868" ht="14.4" spans="1:1">
+    <row r="868" spans="1:1">
       <c r="A868" s="1" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="869" ht="14.4" spans="1:1">
+    <row r="869" spans="1:1">
       <c r="A869" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="870" ht="14.4" spans="1:1">
+    <row r="870" spans="1:1">
       <c r="A870" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="871" ht="14.4" spans="1:1">
+    <row r="871" spans="1:1">
       <c r="A871" s="1" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="872" ht="14.4" spans="1:1">
+    <row r="872" spans="1:1">
       <c r="A872" s="1" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="873" ht="14.4" spans="1:1">
+    <row r="873" spans="1:1">
       <c r="A873" s="1" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="874" ht="14.4" spans="1:1">
+    <row r="874" spans="1:1">
       <c r="A874" s="1" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="875" ht="14.4" spans="1:1">
+    <row r="875" spans="1:1">
       <c r="A875" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="876" ht="14.4" spans="1:1">
+    <row r="876" spans="1:1">
       <c r="A876" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="877" ht="14.4" spans="1:1">
+    <row r="877" spans="1:1">
       <c r="A877" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="878" ht="14.4" spans="1:1">
+    <row r="878" spans="1:1">
       <c r="A878" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="879" ht="14.4" spans="1:1">
+    <row r="879" spans="1:1">
       <c r="A879" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="880" ht="14.4" spans="1:1">
+    <row r="880" spans="1:1">
       <c r="A880" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="881" ht="14.4" spans="1:1">
+    <row r="881" spans="1:1">
       <c r="A881" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="882" ht="14.4" spans="1:1">
+    <row r="882" spans="1:1">
       <c r="A882" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="883" ht="14.4" spans="1:1">
+    <row r="883" spans="1:1">
       <c r="A883" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="884" ht="14.4" spans="1:1">
+    <row r="884" spans="1:1">
       <c r="A884" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="885" ht="14.4" spans="1:1">
+    <row r="885" spans="1:1">
       <c r="A885" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="886" ht="14.4" spans="1:1">
+    <row r="886" spans="1:1">
       <c r="A886" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="887" ht="14.4" spans="1:1">
+    <row r="887" spans="1:1">
       <c r="A887" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="888" ht="14.4" spans="1:1">
+    <row r="888" spans="1:1">
       <c r="A888" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="889" ht="14.4" spans="1:1">
+    <row r="889" spans="1:1">
       <c r="A889" s="1" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="890" ht="14.4" spans="1:1">
+    <row r="890" spans="1:1">
       <c r="A890" s="1" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="891" ht="14.4" spans="1:1">
+    <row r="891" spans="1:1">
       <c r="A891" s="1" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="892" ht="14.4" spans="1:1">
+    <row r="892" spans="1:1">
       <c r="A892" s="1" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="893" ht="14.4" spans="1:1">
+    <row r="893" spans="1:1">
       <c r="A893" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="894" ht="14.4" spans="1:1">
+    <row r="894" spans="1:1">
       <c r="A894" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="895" ht="14.4" spans="1:1">
+    <row r="895" spans="1:1">
       <c r="A895" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="896" ht="14.4" spans="1:1">
+    <row r="896" spans="1:1">
       <c r="A896" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="897" ht="14.4" spans="1:1">
+    <row r="897" spans="1:1">
       <c r="A897" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="898" ht="14.4" spans="1:1">
+    <row r="898" spans="1:1">
       <c r="A898" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="899" ht="14.4" spans="1:1">
+    <row r="899" spans="1:1">
       <c r="A899" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="900" ht="14.4" spans="1:1">
+    <row r="900" spans="1:1">
       <c r="A900" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="901" ht="14.4" spans="1:1">
+    <row r="901" spans="1:1">
       <c r="A901" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="902" ht="14.4" spans="1:1">
+    <row r="902" spans="1:1">
       <c r="A902" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="903" ht="14.4" spans="1:1">
+    <row r="903" spans="1:1">
       <c r="A903" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="904" ht="14.4" spans="1:1">
+    <row r="904" spans="1:1">
       <c r="A904" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="905" ht="14.4" spans="1:1">
+    <row r="905" spans="1:1">
       <c r="A905" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="906" ht="14.4" spans="1:1">
+    <row r="906" spans="1:1">
       <c r="A906" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="907" ht="14.4" spans="1:1">
+    <row r="907" spans="1:1">
       <c r="A907" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="908" ht="14.4" spans="1:1">
+    <row r="908" spans="1:1">
       <c r="A908" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="909" ht="14.4" spans="1:1">
+    <row r="909" spans="1:1">
       <c r="A909" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="910" ht="14.4" spans="1:1">
+    <row r="910" spans="1:1">
       <c r="A910" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="911" ht="14.4" spans="1:1">
+    <row r="911" spans="1:1">
       <c r="A911" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="912" ht="14.4" spans="1:1">
+    <row r="912" spans="1:1">
       <c r="A912" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="913" ht="14.4" spans="1:1">
+    <row r="913" spans="1:1">
       <c r="A913" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="914" ht="14.4" spans="1:1">
+    <row r="914" spans="1:1">
       <c r="A914" s="1" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="915" ht="14.4" spans="1:1">
+    <row r="915" spans="1:1">
       <c r="A915" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="916" ht="14.4" spans="1:1">
+    <row r="916" spans="1:1">
       <c r="A916" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="917" ht="14.4" spans="1:1">
+    <row r="917" spans="1:1">
       <c r="A917" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="918" ht="14.4" spans="1:1">
+    <row r="918" spans="1:1">
       <c r="A918" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="919" ht="14.4" spans="1:1">
+    <row r="919" spans="1:1">
       <c r="A919" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="920" ht="14.4" spans="1:1">
+    <row r="920" spans="1:1">
       <c r="A920" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="921" ht="14.4" spans="1:1">
+    <row r="921" spans="1:1">
       <c r="A921" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="922" ht="14.4" spans="1:1">
+    <row r="922" spans="1:1">
       <c r="A922" s="1" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="923" ht="14.4" spans="1:1">
+    <row r="923" spans="1:1">
       <c r="A923" s="1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="924" ht="14.4" spans="1:1">
+    <row r="924" spans="1:1">
       <c r="A924" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="925" ht="14.4" spans="1:1">
+    <row r="925" spans="1:1">
       <c r="A925" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="926" ht="14.4" spans="1:1">
+    <row r="926" spans="1:1">
       <c r="A926" s="1" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="927" ht="14.4" spans="1:1">
+    <row r="927" spans="1:1">
       <c r="A927" s="1" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="928" ht="14.4" spans="1:1">
+    <row r="928" spans="1:1">
       <c r="A928" s="1" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="929" ht="14.4" spans="1:1">
+    <row r="929" spans="1:1">
       <c r="A929" s="1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="930" ht="14.4" spans="1:1">
+    <row r="930" spans="1:1">
       <c r="A930" s="1" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="931" ht="14.4" spans="1:1">
+    <row r="931" spans="1:1">
       <c r="A931" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="932" ht="14.4" spans="1:1">
+    <row r="932" spans="1:1">
       <c r="A932" s="1" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="933" ht="14.4" spans="1:1">
+    <row r="933" spans="1:1">
       <c r="A933" s="1" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="934" ht="14.4" spans="1:1">
+    <row r="934" spans="1:1">
       <c r="A934" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="935" ht="14.4" spans="1:1">
+    <row r="935" spans="1:1">
       <c r="A935" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="936" ht="14.4" spans="1:1">
+    <row r="936" spans="1:1">
       <c r="A936" s="1" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="937" ht="14.4" spans="1:1">
+    <row r="937" spans="1:1">
       <c r="A937" s="1" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="938" ht="14.4" spans="1:1">
+    <row r="938" spans="1:1">
       <c r="A938" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="939" ht="14.4" spans="1:1">
+    <row r="939" spans="1:1">
       <c r="A939" s="1" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="940" ht="14.4" spans="1:1">
+    <row r="940" spans="1:1">
       <c r="A940" s="1" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="941" ht="14.4" spans="1:1">
+    <row r="941" spans="1:1">
       <c r="A941" s="1" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="942" ht="14.4" spans="1:1">
+    <row r="942" spans="1:1">
       <c r="A942" s="1" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="943" ht="14.4" spans="1:1">
+    <row r="943" spans="1:1">
       <c r="A943" s="1" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="944" ht="14.4" spans="1:1">
+    <row r="944" spans="1:1">
       <c r="A944" s="1" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="945" ht="14.4" spans="1:1">
+    <row r="945" spans="1:1">
       <c r="A945" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="946" ht="14.4" spans="1:1">
+    <row r="946" spans="1:1">
       <c r="A946" s="1" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="947" ht="14.4" spans="1:1">
+    <row r="947" spans="1:1">
       <c r="A947" s="1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="948" ht="14.4" spans="1:1">
+    <row r="948" spans="1:1">
       <c r="A948" s="1" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="949" ht="14.4" spans="1:1">
+    <row r="949" spans="1:1">
       <c r="A949" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="950" ht="14.4" spans="1:1">
+    <row r="950" spans="1:1">
       <c r="A950" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="951" ht="14.4" spans="1:1">
+    <row r="951" spans="1:1">
       <c r="A951" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="952" ht="14.4" spans="1:1">
+    <row r="952" spans="1:1">
       <c r="A952" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="953" ht="14.4" spans="1:1">
+    <row r="953" spans="1:1">
       <c r="A953" s="5" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="954" ht="14.4" spans="1:1">
+    <row r="954" spans="1:1">
       <c r="A954" s="5" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="955" ht="14.4" spans="1:1">
+    <row r="955" spans="1:1">
       <c r="A955" s="5" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="956" ht="14.4" spans="1:1">
+    <row r="956" spans="1:1">
       <c r="A956" s="5" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="957" ht="14.4" spans="1:1">
+    <row r="957" spans="1:1">
       <c r="A957" s="5" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="958" ht="14.4" spans="1:1">
+    <row r="958" spans="1:1">
       <c r="A958" s="5" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="959" ht="14.4" spans="1:1">
+    <row r="959" spans="1:1">
       <c r="A959" s="5" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="960" ht="14.4" spans="1:1">
+    <row r="960" spans="1:1">
       <c r="A960" s="5" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="961" ht="14.4" spans="1:1">
+    <row r="961" spans="1:1">
       <c r="A961" s="5" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="962" ht="14.4" spans="1:1">
+    <row r="962" spans="1:1">
       <c r="A962" s="5" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="963" ht="14.4" spans="1:1">
+    <row r="963" spans="1:1">
       <c r="A963" s="5" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="964" ht="14.4" spans="1:1">
+    <row r="964" spans="1:1">
       <c r="A964" s="5" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="965" ht="14.4" spans="1:1">
+    <row r="965" spans="1:1">
       <c r="A965" s="5" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="966" ht="14.4" spans="1:1">
+    <row r="966" spans="1:1">
       <c r="A966" s="5" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="967" ht="14.4" spans="1:1">
+    <row r="967" spans="1:1">
       <c r="A967" s="5" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="968" ht="14.4" spans="1:1">
+    <row r="968" spans="1:1">
       <c r="A968" s="5" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="969" ht="14.4" spans="1:1">
+    <row r="969" spans="1:1">
       <c r="A969" s="5" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="970" ht="14.4" spans="1:1">
+    <row r="970" spans="1:1">
       <c r="A970" s="5" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="971" ht="14.4" spans="1:1">
+    <row r="971" spans="1:1">
       <c r="A971" s="5" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="972" ht="14.4" spans="1:1">
+    <row r="972" spans="1:1">
       <c r="A972" s="5" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="973" ht="14.4" spans="1:1">
+    <row r="973" spans="1:1">
       <c r="A973" s="5" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="974" ht="14.4" spans="1:1">
+    <row r="974" spans="1:1">
       <c r="A974" s="5" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="975" ht="14.4" spans="1:1">
+    <row r="975" spans="1:1">
       <c r="A975" s="5" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="976" ht="14.4" spans="1:1">
+    <row r="976" spans="1:1">
       <c r="A976" s="5" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="977" ht="14.4" spans="1:1">
+    <row r="977" spans="1:1">
       <c r="A977" s="5" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="978" ht="14.4" spans="1:1">
+    <row r="978" spans="1:1">
       <c r="A978" s="5" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="979" ht="14.4" spans="1:1">
+    <row r="979" spans="1:1">
       <c r="A979" s="5" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="980" ht="14.4" spans="1:1">
+    <row r="980" spans="1:1">
       <c r="A980" s="5" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="981" ht="14.4" spans="1:1">
+    <row r="981" spans="1:1">
       <c r="A981" s="5" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="982" ht="14.4" spans="1:1">
+    <row r="982" spans="1:1">
       <c r="A982" s="5" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="983" ht="14.4" spans="1:1">
+    <row r="983" spans="1:1">
       <c r="A983" s="5" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="984" ht="14.4" spans="1:1">
+    <row r="984" spans="1:1">
       <c r="A984" s="5" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="985" ht="14.4" spans="1:1">
+    <row r="985" spans="1:1">
       <c r="A985" s="5" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="986" ht="14.4" spans="1:1">
+    <row r="986" spans="1:1">
       <c r="A986" s="5" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="987" ht="14.4" spans="1:1">
+    <row r="987" spans="1:1">
       <c r="A987" s="5" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="988" ht="14.4" spans="1:1">
+    <row r="988" spans="1:1">
       <c r="A988" s="5" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="989" ht="14.4" spans="1:1">
+    <row r="989" spans="1:1">
       <c r="A989" s="5" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="990" ht="14.4" spans="1:1">
+    <row r="990" spans="1:1">
       <c r="A990" s="5" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="991" ht="14.4" spans="1:1">
+    <row r="991" spans="1:1">
       <c r="A991" s="5" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="992" ht="14.4" spans="1:1">
+    <row r="992" spans="1:1">
       <c r="A992" s="5" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="993" ht="14.4" spans="1:1">
+    <row r="993" spans="1:1">
       <c r="A993" s="5" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="994" ht="14.4" spans="1:1">
+    <row r="994" spans="1:1">
       <c r="A994" s="5" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="995" ht="14.4" spans="1:1">
+    <row r="995" spans="1:1">
       <c r="A995" s="5" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="996" ht="14.4" spans="1:1">
+    <row r="996" spans="1:1">
       <c r="A996" s="5" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="997" ht="14.4" spans="1:1">
+    <row r="997" spans="1:1">
       <c r="A997" s="5" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="998" ht="14.4" spans="1:1">
+    <row r="998" spans="1:1">
       <c r="A998" s="5" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="999" ht="14.4" spans="1:1">
+    <row r="999" spans="1:1">
       <c r="A999" s="5" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1000" ht="14.4" spans="1:1">
+    <row r="1000" spans="1:1">
       <c r="A1000" s="5" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1001" ht="14.4" spans="1:1">
+    <row r="1001" spans="1:1">
       <c r="A1001" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="1002" ht="14.4" spans="1:1">
+    <row r="1002" spans="1:1">
       <c r="A1002" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="1003" ht="14.4" spans="1:1">
+    <row r="1003" spans="1:1">
       <c r="A1003" s="5" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1004" ht="14.4" spans="1:1">
+    <row r="1004" spans="1:1">
       <c r="A1004" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1005" ht="14.4" spans="1:1">
+    <row r="1005" spans="1:1">
       <c r="A1005" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1006" ht="14.4" spans="1:1">
+    <row r="1006" spans="1:1">
       <c r="A1006" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1007" ht="14.4" spans="1:1">
+    <row r="1007" spans="1:1">
       <c r="A1007" s="5" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="1008" ht="14.4" spans="1:1">
+    <row r="1008" spans="1:1">
       <c r="A1008" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="1009" ht="14.4" spans="1:1">
+    <row r="1009" spans="1:1">
       <c r="A1009" s="5" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="1010" ht="14.4" spans="1:1">
+    <row r="1010" spans="1:1">
       <c r="A1010" s="5" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="1011" ht="14.4" spans="1:1">
+    <row r="1011" spans="1:1">
       <c r="A1011" s="5" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="1012" ht="14.4" spans="1:1">
+    <row r="1012" spans="1:1">
       <c r="A1012" s="5" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="1013" ht="14.4" spans="1:1">
+    <row r="1013" spans="1:1">
       <c r="A1013" s="5" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="1014" ht="14.4" spans="1:1">
+    <row r="1014" spans="1:1">
       <c r="A1014" s="5" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="1015" ht="14.4" spans="1:1">
+    <row r="1015" spans="1:1">
       <c r="A1015" s="5" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="1016" ht="14.4" spans="1:1">
+    <row r="1016" spans="1:1">
       <c r="A1016" s="5" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="1017" ht="14.4" spans="1:1">
+    <row r="1017" spans="1:1">
       <c r="A1017" s="5" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1018" ht="14.4" spans="1:1">
+    <row r="1018" spans="1:1">
       <c r="A1018" s="5" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="1019" ht="14.4" spans="1:1">
+    <row r="1019" spans="1:1">
       <c r="A1019" s="5" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="1020" ht="14.4" spans="1:1">
+    <row r="1020" spans="1:1">
       <c r="A1020" s="5" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="1021" ht="14.4" spans="1:1">
+    <row r="1021" spans="1:1">
       <c r="A1021" s="5" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="1022" ht="14.4" spans="1:1">
+    <row r="1022" spans="1:1">
       <c r="A1022" s="5" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="1023" ht="14.4" spans="1:1">
+    <row r="1023" spans="1:1">
       <c r="A1023" s="5" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="1024" ht="14.4" spans="1:1">
+    <row r="1024" spans="1:1">
       <c r="A1024" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="1025" ht="14.4" spans="1:1">
+    <row r="1025" spans="1:1">
       <c r="A1025" s="1" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="1026" ht="14.4" spans="1:1">
+    <row r="1026" spans="1:1">
       <c r="A1026" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="1027" ht="14.4" spans="1:1">
+    <row r="1027" spans="1:1">
       <c r="A1027" s="1" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="1028" ht="14.4" spans="1:1">
+    <row r="1028" spans="1:1">
       <c r="A1028" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="1029" ht="14.4" spans="1:1">
+    <row r="1029" spans="1:1">
       <c r="A1029" s="1" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="1030" ht="14.4" spans="1:1">
+    <row r="1030" spans="1:1">
       <c r="A1030" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="1031" ht="14.4" spans="1:1">
+    <row r="1031" spans="1:1">
       <c r="A1031" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="1032" ht="14.4" spans="1:1">
+    <row r="1032" spans="1:1">
       <c r="A1032" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1033" ht="14.4" spans="1:1">
+    <row r="1033" spans="1:1">
       <c r="A1033" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="1034" ht="14.4" spans="1:1">
+    <row r="1034" spans="1:1">
       <c r="A1034" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="1035" ht="14.4" spans="1:1">
+    <row r="1035" spans="1:1">
       <c r="A1035" s="1" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="1036" ht="14.4" spans="1:1">
+    <row r="1036" spans="1:1">
       <c r="A1036" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="1037" ht="14.4" spans="1:1">
-      <c r="A1037" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1038" ht="14.4"/>
-    <row r="1039" ht="14.4" spans="1:1">
+    <row r="1039" spans="1:1">
       <c r="A1039"/>
     </row>
-    <row r="1040" ht="14.4" spans="1:1">
+    <row r="1040" spans="1:1">
       <c r="A1040"/>
     </row>
-    <row r="1041" ht="14.4" spans="1:1">
+    <row r="1041" spans="1:1">
       <c r="A1041"/>
     </row>
-    <row r="1042" ht="14.4" spans="1:1">
+    <row r="1042" spans="1:1">
       <c r="A1042"/>
     </row>
-    <row r="1043" ht="14.4" spans="1:1">
+    <row r="1043" spans="1:1">
       <c r="A1043"/>
     </row>
-    <row r="1044" ht="14.4" spans="1:1">
+    <row r="1044" spans="1:1">
       <c r="A1044"/>
     </row>
   </sheetData>
